--- a/ukgov_output_workbook.xlsx
+++ b/ukgov_output_workbook.xlsx
@@ -443,9 +443,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11.86214285714286" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="30.71928571428571" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="99.14785714285713" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="98.43357142857143" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -470,6 +470,17 @@
           <t>It allows for school pupils and care farming clients to visit the site to learn, understand and become engaged with farming and the environment.</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>the children cannot be older than 18. There is no age limit on care farming
+charge for visits
+receive any other direct income relating to the educational visit
+youth clubs, toddler groups and extra-curricular events are not eligible visitors
+respite care and those set to work on tasks are not eligible visitors
+as there is no maximum party size, only one group on the holding at a time is eligible to be claimed
+You cannot claim for more than 25 visiting groups in any agreement year.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,6 +498,14 @@
           <t>It provides areas of flowering plants to boost essential food sources for beneficial pollinators such as bumble bees, solitary bees, butterflies and hoverflies.</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    graze between 15 March and 31 August
+    allow a single species to exceed 50% of the total seed mix by weight.
+  </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -504,6 +523,13 @@
           <t>It provides an important food source for farmland birds throughout the year and insects in the summer, and provides both grain and seeding arable plants in winter.</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>apply any herbicides except those on the list of permitted active ingredients – see ‘Permitted active ingredients’ on AB7 - Whole crop cereals
+apply any fertilisers, manures or lime
+apply any insecticides after 15 March</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -521,6 +547,14 @@
           <t>It creates uncropped, cultivated areas for a wide range of scarce and declining arable plants, allowing them to increase their populations over time. It will provide areas of less densely vegetated ground for insects such as bumblebees, solitary bees and hoverflies visiting flowers and the bare ground created. The option will also provide summer foraging habitats for declining farmland birds, such as grey partridge and turtle dove.</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>disturb cultivated areas before 31 August
+apply any fertilisers or manures
+apply any lime
+use any pesticides, except for herbicides to weed-wipe or spot-treat for the control of injurious weeds, invasive non-natives, nettles or bracken</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -538,6 +572,11 @@
           <t>Winter supplementary feeding</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -577,6 +616,13 @@
           <t>An open-structured cereal crop provides summer foraging sites for declining and localised farmland birds, such as yellowhammer and reed bunting, and habitat for skylarks, brown hare, rare arable plants and pollinator species, such as bumblebees, solitary bees, butterflies, hoverflies and beneficial insects.</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>harvest the crop before 15 July
+apply any herbicides except those on the list of permitted active ingredients
+apply insecticides after 15 March</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -594,6 +640,11 @@
           <t>It provides food for farmland wildlife, such as pollen and nectar for pollinators including bumblebees, solitary bees, butterflies and hoverflies. As well as invertebrate chick food for farmland birds around the sown fallow between April and July. It can also be a useful part of a rotation aimed at reducing blackgrass populations.</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Graze or conserve forage</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -611,6 +662,11 @@
           <t>It provides important food resources for farmland birds, such as tree sparrow and corn bunting, and a range of nectar feeding insects, including butterflies, solitary bees, hoverflies and bumblebees, on arable and mixed farms.</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -626,6 +682,14 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>It provides a winter food source for seed-eating birds, which feed on spilt grain and the seeds of broad-leaved weeds. It also provides a foraging habitat for brown hare.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>apply pre-harvest desiccants
+apply post-harvest herbicides
+apply any fertilisers, manures or lime to the stubble
+top or graze</t>
         </is>
       </c>
     </row>

--- a/ukgov_output_workbook.xlsx
+++ b/ukgov_output_workbook.xlsx
@@ -14,7 +14,706 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="208">
+  <si>
+    <t xml:space="preserve">AB1 </t>
+  </si>
+  <si>
+    <t>£739 per hectare (ha)</t>
+  </si>
+  <si>
+    <t>['It provides areas of flowering plants to boost essential food sources for beneficial pollinators such as bumble bees, solitary bees, butterflies and hoverflies.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    graze between 15 March and 31 August
+    allow a single species to exceed 50% of the total seed mix by weight.
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB10 </t>
+  </si>
+  <si>
+    <t>£1,072 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It provides an important food source for farmland birds throughout the year and insects in the summer, and provides both grain and seeding arable plants in winter.', 'It will enable a range of declining arable plants and other broad-leaved plants to establish.', 'There will be plants providing summer and winter foraging for declining and localised farmland birds (especially grey partridge), mammals and important farmland pollinator species, such as bees and other beneficial insects.', 'The weedy unharvested cereals will provide over-wintering habitat for insects and food for seed-eating farmland birds.'].''</t>
+  </si>
+  <si>
+    <t>apply any herbicides except those on the list of permitted active ingredients – see ‘Permitted active ingredients’ on AB7 - Whole crop cereals
+apply any fertilisers, manures or lime
+apply any insecticides after 15 March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB11 </t>
+  </si>
+  <si>
+    <t>£660 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It creates uncropped, cultivated areas for a wide range of scarce and declining arable plants, allowing them to increase their populations over time. It will provide areas of less densely vegetated ground for insects such as bumblebees, solitary bees and hoverflies visiting flowers and the bare ground created. The option will also provide summer foraging habitats for declining farmland birds, such as grey partridge and turtle dove.'].''</t>
+  </si>
+  <si>
+    <t>disturb cultivated areas before 31 August
+apply any fertilisers or manures
+apply any lime
+use any pesticides, except for herbicides to weed-wipe or spot-treat for the control of injurious weeds, invasive non-natives, nettles or bracken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB12 </t>
+  </si>
+  <si>
+    <t>£732 per tonne for every 2 hectares (ha) of winter bird food.</t>
+  </si>
+  <si>
+    <t>['It provides important food resources for farmland birds in late winter and early spring on arable and mixed farms, by supplementing crops of winter bird food with additional seed, such as cereal, oilseed and specialised grains. It gives the birds food through the late winter period when seed is in short supply (known as the hungry gap) and as they enter the breeding season.', 'If successful there will be seed-eating farmland birds using the feeding areas from December to April, including:', 'Target birds will be seen more frequently on the farm in the spring and there will be increased breeding success there.', 'You can also use this option in combination with the SP9 Threatened species supplement to deliver summer supplementary feeding for turtle doves in priority areas.', 'You can find more information on how to carry out summer supplementary feeding for turtle doves in the Where to use this option, Recommended management and Advice and suggestions for how to carry out this option sections for SP9.', 'From 1 December to 30 April, there will be about 25 kilograms (kg) of both cereals and other small seeds (see recommended management for details of the seed mix) scattered once a week in multiple locations. For every \n1 tonne of supplementary feed, there will be two feeding stations supplying 500kg each (or if there is less than\n1 tonne of supplementary feed, it will be split equally between 2 separate feeding stations).', 'The seed will be scattered in areas which are firm and free-draining, such as farm tracks or hard standing areas, and in close proximity to enhanced overwinter stubbles, game cover or wild bird seed mixtures.', 'Keep a feeding diary which includes details of mixture used (weight of components and cost), dates of feeding, method of feeding (hopper or spreading), amount of feed, and the location of feeding areas.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities:', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'When planning which feeding sites to use, make sure they can be reached regularly. This is especially important if bad weather will cause problems travelling to them during the winter.', 'It’s important for the health of the birds benefiting from the supplementary feeding that you maintain clean and healthy feeding areas. It’s very important to rotate feeding sites around the farm, but each site should be near existing sown resources.', 'Having 2ha of AB9 Winter bird food in the agreement allows you to spread 1 tonne of supplementary feed each year, split equally between 2 feeding stations, so 500kg per year per feeding station.', 'Where less than 2ha of AB9 is put into the agreement, you can include a pro-rata amount of AB12. For example, the minimum area allowed of AB9 is 0.4ha. This would allow you to include 200kg of AB12, spread equally between two feeding stations, so 100kg per year per feeding station.', 'You should start supplementary feeding before the sown winter bird food runs out. This keeps farmland birds using the areas and prevents a dip in their winter condition.', 'Distribute enough supplementary food to match the birds’ consumption, so that seed is not left uneaten. This will make sure that a fresh supply of food is maintained, which will keep birds healthy and reduce any rodent problems. This is particularly important when ground feeding, or if hoppers are left unprotected.', 'Where possible stagger feeding at different feeding stations to reduce the risk of seeds being left uneaten. Staggered feeding can also reduce non target species such as rodents, crows and pigeons from eating the supplementary feed. Do not leave the feed in piles, make sure it is well dispersed.', 'Prepare to be flexible, so that if the winter period is extended through bad weather, you can adjust the amount of feeding planned and extend for any additional days or weeks that are needed. This makes sure that birds are not left with a ‘hungry gap’ before the natural seed resources on the farm become available.', 'The following example mix will supply a range of seeds readily taken by most farmland birds.', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB13 </t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB14 </t>
+  </si>
+  <si>
+    <t>£354 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['An open-structured cereal crop provides summer foraging sites for declining and localised farmland birds, such as yellowhammer and reed bunting, and habitat for skylarks, brown hare, rare arable plants and pollinator species, such as bumblebees, solitary bees, butterflies, hoverflies and beneficial insects.'].''</t>
+  </si>
+  <si>
+    <t>harvest the crop before 15 July
+apply any herbicides except those on the list of permitted active ingredients
+apply insecticides after 15 March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB15 </t>
+  </si>
+  <si>
+    <t>£593 hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It provides food for farmland wildlife, such as pollen and nectar for pollinators including bumblebees, solitary bees, butterflies and hoverflies. As well as invertebrate chick food for farmland birds around the sown fallow between April and July. It can also be a useful part of a rotation aimed at reducing blackgrass populations.'].''</t>
+  </si>
+  <si>
+    <t>Graze or conserve forage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB16 </t>
+  </si>
+  <si>
+    <t>£747 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It provides important food resources for farmland birds, such as tree sparrow and corn bunting, and a range of nectar feeding insects, including butterflies, solitary bees, hoverflies and bumblebees, on arable and mixed farms.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB2 </t>
+  </si>
+  <si>
+    <t>£58 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It provides a winter food source for seed-eating birds, which feed on spilt grain and the seeds of broad-leaved weeds. It also provides a foraging habitat for brown hare.'].''</t>
+  </si>
+  <si>
+    <t>apply pre-harvest desiccants
+apply post-harvest herbicides
+apply any fertilisers, manures or lime to the stubble
+top or graze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB3 </t>
+  </si>
+  <si>
+    <t>£764 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It provides nesting and foraging habitats for:'].''</t>
+  </si>
+  <si>
+    <t>apply any fertilisers, manures or lime
+use any pesticides, except for herbicides to weed-wipe or spot-treat for the control of injurious weeds, invasive non-natives, nettles or bracken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB6 </t>
+  </si>
+  <si>
+    <t>£589 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It provides important winter food sources for seed-eating birds, spring and summer foraging and nesting habitat for other farmland birds and undisturbed habitat for other farmland wildlife including many pollinators.', 'If successful there will be:'].''</t>
+  </si>
+  <si>
+    <t>use pre-harvest desiccants
+apply fertilisers, manures or lime to the stubble
+apply pesticides to the stubble, except herbicides to control problem grass weeds by spraying the affected area from 15 May
+top or graze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB7 </t>
+  </si>
+  <si>
+    <t>£596 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It provides a valuable seed source in grass-dominated areas, from any unripe spilt grain after harvest and from the stubble in winter. It also delivers resource protection benefits when compared to maize.', 'During the summer there will be foraging for declining and localised farmland birds, small mammals and pollinator species such as bees and other beneficial insects.', 'A weedy stubble will provide over-wintering habitat for insects and seed eating farmland birds.'].''</t>
+  </si>
+  <si>
+    <t>apply any herbicides except those on the list of permitted active ingredients
+apply any insecticides between 15 March and the following harvest
+apply any fertilisers, manures or lime to the stubble
+top or graze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB8 </t>
+  </si>
+  <si>
+    <t>£798 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['Flower-rich grass margins or plots provide important habitat and foraging sites for invertebrates, including wild pollinators such as bumblebees, solitary bees, butterflies and hoverflies, and farmland birds like the yellowhammer.', 'In year 1, a margin or plot will be established in the spring/summer/autumn.  The seed mix will contain a minimum of 4 grass species and 10 wildflower species.  The grass component will not exceed 90% of the total seed mix by weight.  No individual flower species will exceed 25% of the total wildflower species component by weight.', 'Once established, the margin/plot will flower throughout the summer to provide an abundant supply of pollen and nectar.', 'In the late summer / autumn, cutting or grazing the majority of the margin or plot allows for new growth in the spring whilst the remainder provides a refuge for wildlife.  Dense cuttings will be removed.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option we recommend that you use best practice.', 'We recommend that you:', 'When flower rich margins and plots are fully established (typically from the second spring after sowing) you should manage as follows.', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful but they are not requirements for this item.', 'Use lower yielding areas if they have a sunny aspect, or face south or south-southwest. Avoid planting under overhanging trees, next to tall hedges or on land facing north or east. Leave access to surrounding crops to allow for management.', 'Avoid very fertile soils and areas infested with injurious weeds such as creeping thistle, docks, nettles and common ragwort.', 'This option should not be established in field locations known to support important groups of rare arable plants.', 'Wide margins and big blocks let insects move to safety when you are spraying fields. Spacing 5 patches of 0.5ha evenly within 100ha meets the food needs of many pollinators.', 'The seed mix should contain both grasses and perennial flowering plants, such as:', 'Sow at 20kg per ha to provide enough plants when the mixture is established.', 'Use existing suitable flower-rich plots or margins instead of re-sowing, provided they offer a variety of flowers that deliver a rich supply of pollen and nectar during the summer.', 'To meet option requirements, establish the mix in spring or late summer / early autumn of year 1 of the agreement.', 'Create a firm, consolidated, clean / sterile seed bed.  Wildflower seed is very small so will not germinate if drilled too deeply.  Broadcast or trickle the seed on top of the seedbed and roll or harrow to help ensure good seed to soil contact, retain moisture and reduce movement of slugs within the soil profile.', 'Check for slug damage and control using wildlife-friendly slug bait where necessary.', 'Top emerging flowers and weeds at least 3 times in year 1 for spring sowings and at least twice in year 2 for late summer / autumn sowings. Regular topping prevents weeds smothering the slow-growing flowers so that all sown species establish successfully and toppings can be left.', 'Before the beginning of April each year make sure vegetation is short enough to allow flower species to grow without competition from dominant grasses. Cut and remove summer growth between 15 August and 31 October to help reduce soil fertility and boost flower numbers in subsequent years.', 'Always leave 10% of the option area uncut or ungrazed to provide overwinter nesting and safe refuges for pollinators and other invertebrates.', 'Remember to retain flower-rich margins and plots until at least 31 December in year 5 of the agreement.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme.\u202fCapital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB9 </t>
+  </si>
+  <si>
+    <t>£853 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It provides important food resources (small seeds) for farmland birds, especially in autumn and winter.', 'The flowering plants will benefit insects including bumblebees, solitary bees, butterflies and hoverflies.'].''</t>
+  </si>
+  <si>
+    <t>allow an individual crop group to exceed 90% of the total mix by weight
+sow the following crops:
+      Artichokes
+      Canary grass
+      Giant and intermediate sorghum
+      Maize
+      Miscanthus
+      Sweet clover
+      Tic beans
+Artichokes
+Canary grass
+Giant and intermediate sorghum
+Maize
+Miscanthus
+Sweet clover
+Tic beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC1 </t>
+  </si>
+  <si>
+    <t>Up to 100% of actual cost.</t>
+  </si>
+  <si>
+    <t>If successful there will be greater public accessibility of the countryside or enhanced educational visits.</t>
+  </si>
+  <si>
+    <t>No Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC2 </t>
+  </si>
+  <si>
+    <t>£277.26 once per agreement.</t>
+  </si>
+  <si>
+    <t>This allows one member from the agreement holding to go to a training course and become accredited at carrying out enhanced educational experiences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQ1 </t>
+  </si>
+  <si>
+    <t>£2,760 per passageway/channel</t>
+  </si>
+  <si>
+    <t>The frequent removal of slurry from livestock housing will reduce the levels of ammonia released into the air that impact air quality and the natural environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQ2 </t>
+  </si>
+  <si>
+    <t>£72 per m2</t>
+  </si>
+  <si>
+    <t>Reducing the mixing of urine and faeces on livestock housing floors and the rapid removal of the urine will limit the chemical reactions that release ammonia. Low emission floors with suitable slurry scrapers effectively reduces the surface area of slurry that is exposed to the air, thereby reducing ammonia emissions from the housing. Ammonia emissions are linked to poor air quality that impacts the natural environment and human health. Ammonia in air and associated nitrogen deposition harms sensitive habitats and species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE1 </t>
+  </si>
+  <si>
+    <t>£553 per hectare (ha)</t>
+  </si>
+  <si>
+    <t>['If successful, trees will be protected from agricultural operations and kept as important features in the local landscape. Tree roots will be protected from damage by cultivations with a fertiliser-free grass buffer. Undisturbed standing and fallen deadwood will provide habitat for invertebrates.'].''</t>
+  </si>
+  <si>
+    <t>Apply any fertilisers or manures
+Apply any lime
+Plough, cultivate or re-seed
+Use supplementary feed
+Harrow or roll
+Use pesticides, except for herbicides to spot-treat or weed-wipe to control nettles, bracken, injurious weeds or invasive non-natives
+Remove any tree limbs, including lower limbs, or mature ivy growth
+Carry out any drainage works, including modifying existing drainage, without written permission before any work takes place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE2 </t>
+  </si>
+  <si>
+    <t>£295 per hectare (ha)</t>
+  </si>
+  <si>
+    <t>Apply any fertilisers or manures
+Apply any lime
+Plough, cultivate or re-seed
+Use supplementary feed
+Harrow or roll
+Use pesticides, except for herbicides to spot-treat or weed-wipe to control nettles, bracken, injurious weeds or invasive non-natives
+Remove any tree limbs, including lower limbs, or mature ivy growth
+Carry out any drainage works, including modifying existing drainage, without written permission before any works take place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE3 </t>
+  </si>
+  <si>
+    <t>£13 per 100m for 1 side of a hedge.</t>
+  </si>
+  <si>
+    <t>['Managing hedges in this way increases the availability of blossom for invertebrates. By allowing fruit and berries to ripen it provides food for overwintering birds. It will also improve the structure and longevity of hedgerows, and maintains them as distinctive and historic landscape features.'].''</t>
+  </si>
+  <si>
+    <t>Supplementary feed livestock within 2m of the centre of the hedge
+Remove any tree limbs, including lower limbs, or mature ivy growth from hedgerow trees
+Remove any standing deadwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE4 </t>
+  </si>
+  <si>
+    <t>£264 per hectare (ha)</t>
+  </si>
+  <si>
+    <t>['If successful there will be a well-managed traditional orchard with a range of healthy young and old trees. This includes established grass, tall bushy hedges, scrub and tall herb vegetation abundant with invertebrates, birds and wildflowers.', 'Provide a range of healthy young and mature fruit trees. Restore tree numbers by planting fruit trees on vigorous root stock, as detailed in the capital works plan. New trees will be formatively pruned with the base kept free of vegetation for at least three years after planting.  Protect all trees from livestock and wild animals. Keep all mature and over mature trees, standing deadwood and deadwood on living trees.', 'Manage the grass by grazing or cutting for hay. During the autumn and winter allow some of this grass to go to seed. Manage any scrub that’s present to ensure there is a minimum present throughout the year. Control invasive species.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'Traditional orchards are defined as groups of fruit and nut trees planted on vigorous rootstocks at low densities in permanent grassland, and managed in a low intensity way. This includes cobnut plats.', 'Prevent weeds from competing with newly planted trees for water and nutrients. Keep a 1m diameter circle clear of all vegetation for at least the first 3 years after planting.', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t>Plough, cultivate or re-seed
+Roll or harrow
+Apply any fertilisers or manures
+Apply lime
+Carry out supplementary feeding
+Carry out drainage works, including modifying existing drainage, without RPA’s written permission before work starts.
+Use pesticides, except for herbicides to spot-treat or weed-wipe to control nettles, bracken, injurious weeds or invasive non-natives
+Use fungicides to target specific pests and diseases, without prior approval from your Natural England adviser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE5 </t>
+  </si>
+  <si>
+    <t>£471 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>If successful there will be a well-managed traditional orchard with a range of healthy young and old trees. This includes established grass, tall bushy hedges, scrub and tall herb vegetation abundant with invertebrates, birds and wildflowers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE6 </t>
+  </si>
+  <si>
+    <t>£488 for each veteran tree, contained within the agreement management plan, that receives veteran tree surgery in the claim year.</t>
+  </si>
+  <si>
+    <t>It reduces the rate of loss of veteran trees by carrying out specialist tree surgery to extend their lifespan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE7 </t>
+  </si>
+  <si>
+    <t>£146 per tree</t>
+  </si>
+  <si>
+    <t>[].''</t>
+  </si>
+  <si>
+    <t>Prune more than one-third of the woody growth in the crown of each specified tree in the specified years
+Remove fallen or pruned wood from the orchard (unless diseased).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN1 </t>
+  </si>
+  <si>
+    <t>£67.25 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>If successful there will be a rebuilt length of stone-faced bank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN10 </t>
+  </si>
+  <si>
+    <t>£5.82 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>If successful there will be lengths of hedgerow rejuvenated with new growth to form a continuous hedge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN11 </t>
+  </si>
+  <si>
+    <t>£22.97 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>There will be new lengths of hedgerow planted with locally occurring native species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN12 </t>
+  </si>
+  <si>
+    <t>£31.91 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>There will be a rebuilt stone wall which will help to control livestock and conserve traditional landscapes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN13 </t>
+  </si>
+  <si>
+    <t>£5.54 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN14 </t>
+  </si>
+  <si>
+    <t>£164.50 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>If successful there will be a rebuilt stone wall on sites where there was insufficient re-usable stone on the farm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN2 </t>
+  </si>
+  <si>
+    <t>£163.26 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN3 </t>
+  </si>
+  <si>
+    <t>£20.59 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>If successful there will be a new length of earth bank which will conserve and enhance landscape character and provide a valuable wildlife habitat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN4 </t>
+  </si>
+  <si>
+    <t>£10.54 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>If successful there will be a length of rebuilt earth bank which will conserve and enhance landscape character and provide a valuable wildlife habitat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN5 </t>
+  </si>
+  <si>
+    <t>£13.52 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>Lengths of hedgerow will rejuvenate with new growth to form a continuous hedge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN6 </t>
+  </si>
+  <si>
+    <t>£5.33 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN7 </t>
+  </si>
+  <si>
+    <t>£17.22 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>Lengths of hedgerow with gaps planted up will create a continuous length of hedge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN8 </t>
+  </si>
+  <si>
+    <t>£4.39 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>If successful there will be lengths of hedgerow which have been re-profiled and had slipped soil replaced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN9 </t>
+  </si>
+  <si>
+    <t>£7.06 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t>If successful, lengths of restored hedgerow which required substantial pre-work or were located on difficult sites will be restored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT1 </t>
+  </si>
+  <si>
+    <t>£620 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>It is designed to make sure that existing coastal sand dunes and vegetated shingle sites are managed appropriately. This includes both sites in good condition or those that need restoration, such as where management has stopped or scrub has invaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT3 </t>
+  </si>
+  <si>
+    <t>£483 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>It maintains coastal saltmarsh in good condition and restores saltmarsh in unfavourable condition when grazing or cutting are key factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT5 </t>
+  </si>
+  <si>
+    <t>£494 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>It creates inter-tidal and saline habitats, including transitional areas (transitions between saltmarsh and nearby habitats), following the unmanaged breach of sea walls or the overtopping of sea walls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT7 </t>
+  </si>
+  <si>
+    <t>It creates inter-tidal and saline habitats, including transitional areas (transitions between saltmarsh and nearby habitats), on grassland or improved grassland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED1 </t>
+  </si>
+  <si>
+    <t>£363 per visit.</t>
+  </si>
+  <si>
+    <t>['It allows for school pupils and care farming clients to visit the site to learn, understand and become engaged with farming and the environment.'].''</t>
+  </si>
+  <si>
+    <t>the children cannot be older than 18. There is no age limit on care farming
+charge for visits
+receive any other direct income relating to the educational visit
+youth clubs, toddler groups and extra-curricular events are not eligible visitors
+respite care and those set to work on tasks are not eligible visitors
+as there is no maximum party size, only one group on the holding at a time is eligible to be claimed
+You cannot claim for more than 25 visiting groups in any agreement year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG1 </t>
+  </si>
+  <si>
+    <t>£6.34 per metre (m).</t>
+  </si>
+  <si>
+    <t>This item helps control livestock, protects environmental features and helps to manage habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG10 </t>
+  </si>
+  <si>
+    <t>£8.09 per metre.</t>
+  </si>
+  <si>
+    <t>It will protect newly coppiced woodland from deer browsing as part of a wider woodland management project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG11 </t>
+  </si>
+  <si>
+    <t>£212.56 per unit.</t>
+  </si>
+  <si>
+    <t>It will protect areas of woodland that are approximately 16 square metres in size from deer browsing. This will allow monitoring of the area’s regeneration potential and the impact of browsing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG12 </t>
+  </si>
+  <si>
+    <t>£489.90 per gate.</t>
+  </si>
+  <si>
+    <t>Wooden gates help stock management, or stop livestock from getting into an area where they may cause damage, such as a historic or archaeological feature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG13 </t>
+  </si>
+  <si>
+    <t>£651.42 per post.</t>
+  </si>
+  <si>
+    <t>It will help conserve local landscape character and sites of historic interest by establishing stone gate posts made from local materials in local styles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG14 </t>
+  </si>
+  <si>
+    <t>£61.81 per gate.</t>
+  </si>
+  <si>
+    <t>As badgers can pass freely through the fence this item reduces the damage they cause to fence lines (which were themselves installed to benefit habitats through appropriate grazing, and so on).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG15 </t>
+  </si>
+  <si>
+    <t>£532.80 per gate.</t>
+  </si>
+  <si>
+    <t>This item prevents livestock from entering watercourse channels. It also stops livestock from trampling waterside banks and leaves bankside vegetation lush and unbroken by livestock paths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG2 </t>
+  </si>
+  <si>
+    <t>£7.47 per metre (m).</t>
+  </si>
+  <si>
+    <t>This item protects environmental features from livestock and helps manage habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG3 </t>
+  </si>
+  <si>
+    <t>£5.66 per metre (m).</t>
+  </si>
+  <si>
+    <t>If successful this item will help control livestock and protect environmental features. It will also help to manage habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG4 </t>
+  </si>
+  <si>
+    <t>£5.65 per metre (m).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG5 </t>
+  </si>
+  <si>
+    <t>£3.98 per metre (m).</t>
+  </si>
+  <si>
+    <t>This supplement helps control livestock, protects environmental features and helps to manage habitats on difficult sites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG9 </t>
+  </si>
+  <si>
+    <t>£10.27 per metre (m).</t>
+  </si>
+  <si>
+    <t>It will protect newly created or existing woodland from deer browsing as part of a wider woodland creation or woodland management project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM2 </t>
+  </si>
+  <si>
+    <t>Up to 100% of actual costs.</t>
+  </si>
+  <si>
+    <t>If successful this item will result in large scale restoration and creation of priority habitats and bespoke management for priority species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FY1 </t>
+  </si>
+  <si>
+    <t>£265 per unit.</t>
+  </si>
+  <si>
+    <t>It will provide a safe, temporary vantage point from which to cull deer, reducing the impact their browsing has on the land.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FY2 </t>
+  </si>
+  <si>
+    <t>Under this item we will pay 60% of actual costs (including VAT and agent’s fees, where applicable).</t>
+  </si>
+  <si>
+    <t>It makes woodlands more accessible by road, allowing timber and other forest products to be moved more easily. This improves the management of the woodland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FY2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS1 </t>
+  </si>
+  <si>
+    <t>£333 per hectare (ha)</t>
+  </si>
+  <si>
+    <t>['It provides year-round habitat and food for a range of wildlife within grass fields.'].''</t>
+  </si>
+  <si>
+    <t>cut or graze more frequently than one year in every 5
+operate machinery or carry out other activities during the bird breeding season, they may disturb breeding birds or damage nests
+apply any fertilisers or manures
+apply any lime
+use pesticides, except for herbicides to spot-treat or weed-wipe for the control of injurious weeds or invasive non-natives, soft and hard rush, nettles or bracken
+locate the option next to another area under the same option
+cut or graze all areas in the same year if there is more than 1 area
+use this option more than once in every 5ha of permanent grassland in your Mid Tier or Higher Tier application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS10 </t>
+  </si>
+  <si>
+    <t>£547 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['It will provide habitat in wet grassland for wintering wildfowl and wading birds. Fields will have wet areas throughout the winter, attracting wading birds and wildfowl, which will be able to feed and roost undisturbed.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS13 </t>
+  </si>
+  <si>
+    <t>£528 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>It will maintain or increase the quantity of the targeted habitat, species or features. Many priority species such as bumblebees, butterflies, birds or bats will also benefit. Buried archaeological features will not be disturbed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS14 </t>
+  </si>
+  <si>
+    <t>It will establish a suitable sward with a range of grass, legume and wildflower species. This will protect and enhance the targeted feature, as well as benefiting a range of other species, such as bumblebees, butterflies, birds or bats. Buried archaeological features will not be disturbed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS15 </t>
+  </si>
+  <si>
+    <t>£157 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>cut hay before 5 July (outside SDA’s) or 15 July (in SDA’s)
+cut haylage before 1 August
+graze meadows for at least 7 weeks before cutting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS16 </t>
+  </si>
+  <si>
+    <t>£95 per hectare (ha).</t>
+  </si>
+  <si>
+    <t>['This is a short-term incentive to reduce rush cover in parcels with heavy infestations. It will help prevent the loss of botanically rich grasslands or provide nesting areas for breeding wading birds.', 'During the spring and summer, grazing and/or cutting will reduce the height and density of rush growth by autumn.\nBy year 3 of the agreement, this will have reduced dense rush growth to less than 30% of the parcel area.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities:', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'The aim is to reduce heavy infestations of rushes to a cover below 30%. Cover should then be maintained at between 10% and 30%.\nAlso:', 'The following machines are most appropriate for rush cutting.'].''</t>
+  </si>
+  <si>
+    <t>cut rushes between 15 March and 15 July</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +748,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -356,18 +1058,937 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="1" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="1" width="162.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="1" width="98.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="162.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="98.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
+      <c r="A30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
+      <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
+      <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+      <c r="A37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
+      <c r="A38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
+      <c r="A40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
+      <c r="A41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
+      <c r="A42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
+      <c r="A43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="79.5">
+      <c r="A44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
+      <c r="A45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
+      <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
+      <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
+      <c r="A48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
+      <c r="A49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
+      <c r="A50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
+      <c r="A51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
+      <c r="A52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
+      <c r="A53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
+      <c r="A54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
+      <c r="A55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
+      <c r="A56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
+      <c r="A57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
+      <c r="A58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
+      <c r="A59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
+      <c r="A60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="90">
+      <c r="A61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5">
+      <c r="A62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5">
+      <c r="A63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5">
+      <c r="A64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="37.5">
+      <c r="A65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5">
+      <c r="A66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ukgov_output_workbook.xlsx
+++ b/ukgov_output_workbook.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="581">
   <si>
     <t xml:space="preserve">AB1 </t>
   </si>
   <si>
-    <t>£739 per hectare (ha)</t>
-  </si>
-  <si>
-    <t>['It provides areas of flowering plants to boost essential food sources for beneficial pollinators such as bumble bees, solitary bees, butterflies and hoverflies.'].''</t>
+    <t xml:space="preserve">£739 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides areas of flowering plants to boost essential food sources for beneficial pollinators such as bumble bees, solitary bees, butterflies and hoverflies.'].''</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -34,13 +40,13 @@
     <t xml:space="preserve">AB10 </t>
   </si>
   <si>
-    <t>£1,072 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It provides an important food source for farmland birds throughout the year and insects in the summer, and provides both grain and seeding arable plants in winter.', 'It will enable a range of declining arable plants and other broad-leaved plants to establish.', 'There will be plants providing summer and winter foraging for declining and localised farmland birds (especially grey partridge), mammals and important farmland pollinator species, such as bees and other beneficial insects.', 'The weedy unharvested cereals will provide over-wintering habitat for insects and food for seed-eating farmland birds.'].''</t>
-  </si>
-  <si>
-    <t>apply any herbicides except those on the list of permitted active ingredients – see ‘Permitted active ingredients’ on AB7 - Whole crop cereals
+    <t xml:space="preserve">£1,072 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides an important food source for farmland birds throughout the year and insects in the summer, and provides both grain and seeding arable plants in winter.', 'It will enable a range of declining arable plants and other broad-leaved plants to establish.', 'There will be plants providing summer and winter foraging for declining and localised farmland birds (especially grey partridge), mammals and important farmland pollinator species, such as bees and other beneficial insects.', 'The weedy unharvested cereals will provide over-wintering habitat for insects and food for seed-eating farmland birds.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply any herbicides except those on the list of permitted active ingredients – see ‘Permitted active ingredients’ on AB7 - Whole crop cereals
 apply any fertilisers, manures or lime
 apply any insecticides after 15 March</t>
   </si>
@@ -48,13 +54,13 @@
     <t xml:space="preserve">AB11 </t>
   </si>
   <si>
-    <t>£660 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It creates uncropped, cultivated areas for a wide range of scarce and declining arable plants, allowing them to increase their populations over time. It will provide areas of less densely vegetated ground for insects such as bumblebees, solitary bees and hoverflies visiting flowers and the bare ground created. The option will also provide summer foraging habitats for declining farmland birds, such as grey partridge and turtle dove.'].''</t>
-  </si>
-  <si>
-    <t>disturb cultivated areas before 31 August
+    <t xml:space="preserve">£660 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It creates uncropped, cultivated areas for a wide range of scarce and declining arable plants, allowing them to increase their populations over time. It will provide areas of less densely vegetated ground for insects such as bumblebees, solitary bees and hoverflies visiting flowers and the bare ground created. The option will also provide summer foraging habitats for declining farmland birds, such as grey partridge and turtle dove.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disturb cultivated areas before 31 August
 apply any fertilisers or manures
 apply any lime
 use any pesticides, except for herbicides to weed-wipe or spot-treat for the control of injurious weeds, invasive non-natives, nettles or bracken</t>
@@ -63,31 +69,31 @@
     <t xml:space="preserve">AB12 </t>
   </si>
   <si>
-    <t>£732 per tonne for every 2 hectares (ha) of winter bird food.</t>
-  </si>
-  <si>
-    <t>['It provides important food resources for farmland birds in late winter and early spring on arable and mixed farms, by supplementing crops of winter bird food with additional seed, such as cereal, oilseed and specialised grains. It gives the birds food through the late winter period when seed is in short supply (known as the hungry gap) and as they enter the breeding season.', 'If successful there will be seed-eating farmland birds using the feeding areas from December to April, including:', 'Target birds will be seen more frequently on the farm in the spring and there will be increased breeding success there.', 'You can also use this option in combination with the SP9 Threatened species supplement to deliver summer supplementary feeding for turtle doves in priority areas.', 'You can find more information on how to carry out summer supplementary feeding for turtle doves in the Where to use this option, Recommended management and Advice and suggestions for how to carry out this option sections for SP9.', 'From 1 December to 30 April, there will be about 25 kilograms (kg) of both cereals and other small seeds (see recommended management for details of the seed mix) scattered once a week in multiple locations. For every \n1 tonne of supplementary feed, there will be two feeding stations supplying 500kg each (or if there is less than\n1 tonne of supplementary feed, it will be split equally between 2 separate feeding stations).', 'The seed will be scattered in areas which are firm and free-draining, such as farm tracks or hard standing areas, and in close proximity to enhanced overwinter stubbles, game cover or wild bird seed mixtures.', 'Keep a feeding diary which includes details of mixture used (weight of components and cost), dates of feeding, method of feeding (hopper or spreading), amount of feed, and the location of feeding areas.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities:', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'When planning which feeding sites to use, make sure they can be reached regularly. This is especially important if bad weather will cause problems travelling to them during the winter.', 'It’s important for the health of the birds benefiting from the supplementary feeding that you maintain clean and healthy feeding areas. It’s very important to rotate feeding sites around the farm, but each site should be near existing sown resources.', 'Having 2ha of AB9 Winter bird food in the agreement allows you to spread 1 tonne of supplementary feed each year, split equally between 2 feeding stations, so 500kg per year per feeding station.', 'Where less than 2ha of AB9 is put into the agreement, you can include a pro-rata amount of AB12. For example, the minimum area allowed of AB9 is 0.4ha. This would allow you to include 200kg of AB12, spread equally between two feeding stations, so 100kg per year per feeding station.', 'You should start supplementary feeding before the sown winter bird food runs out. This keeps farmland birds using the areas and prevents a dip in their winter condition.', 'Distribute enough supplementary food to match the birds’ consumption, so that seed is not left uneaten. This will make sure that a fresh supply of food is maintained, which will keep birds healthy and reduce any rodent problems. This is particularly important when ground feeding, or if hoppers are left unprotected.', 'Where possible stagger feeding at different feeding stations to reduce the risk of seeds being left uneaten. Staggered feeding can also reduce non target species such as rodents, crows and pigeons from eating the supplementary feed. Do not leave the feed in piles, make sure it is well dispersed.', 'Prepare to be flexible, so that if the winter period is extended through bad weather, you can adjust the amount of feeding planned and extend for any additional days or weeks that are needed. This makes sure that birds are not left with a ‘hungry gap’ before the natural seed resources on the farm become available.', 'The following example mix will supply a range of seeds readily taken by most farmland birds.', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t xml:space="preserve">£732 per tonne for every 2 hectares (ha) of winter bird food.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides important food resources for farmland birds in late winter and early spring on arable and mixed farms, by supplementing crops of winter bird food with additional seed, such as cereal, oilseed and specialised grains. It gives the birds food through the late winter period when seed is in short supply (known as the hungry gap) and as they enter the breeding season.', 'If successful there will be seed-eating farmland birds using the feeding areas from December to April, including:', 'Target birds will be seen more frequently on the farm in the spring and there will be increased breeding success there.', 'You can also use this option in combination with the SP9 Threatened species supplement to deliver summer supplementary feeding for turtle doves in priority areas.', 'You can find more information on how to carry out summer supplementary feeding for turtle doves in the Where to use this option, Recommended management and Advice and suggestions for how to carry out this option sections for SP9.', 'From 1 December to 30 April, there will be about 25 kilograms (kg) of both cereals and other small seeds (see recommended management for details of the seed mix) scattered once a week in multiple locations. For every \n1 tonne of supplementary feed, there will be two feeding stations supplying 500kg each (or if there is less than\n1 tonne of supplementary feed, it will be split equally between 2 separate feeding stations).', 'The seed will be scattered in areas which are firm and free-draining, such as farm tracks or hard standing areas, and in close proximity to enhanced overwinter stubbles, game cover or wild bird seed mixtures.', 'Keep a feeding diary which includes details of mixture used (weight of components and cost), dates of feeding, method of feeding (hopper or spreading), amount of feed, and the location of feeding areas.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities:', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'When planning which feeding sites to use, make sure they can be reached regularly. This is especially important if bad weather will cause problems travelling to them during the winter.', 'It’s important for the health of the birds benefiting from the supplementary feeding that you maintain clean and healthy feeding areas. It’s very important to rotate feeding sites around the farm, but each site should be near existing sown resources.', 'Having 2ha of AB9 Winter bird food in the agreement allows you to spread 1 tonne of supplementary feed each year, split equally between 2 feeding stations, so 500kg per year per feeding station.', 'Where less than 2ha of AB9 is put into the agreement, you can include a pro-rata amount of AB12. For example, the minimum area allowed of AB9 is 0.4ha. This would allow you to include 200kg of AB12, spread equally between two feeding stations, so 100kg per year per feeding station.', 'You should start supplementary feeding before the sown winter bird food runs out. This keeps farmland birds using the areas and prevents a dip in their winter condition.', 'Distribute enough supplementary food to match the birds’ consumption, so that seed is not left uneaten. This will make sure that a fresh supply of food is maintained, which will keep birds healthy and reduce any rodent problems. This is particularly important when ground feeding, or if hoppers are left unprotected.', 'Where possible stagger feeding at different feeding stations to reduce the risk of seeds being left uneaten. Staggered feeding can also reduce non target species such as rodents, crows and pigeons from eating the supplementary feed. Do not leave the feed in piles, make sure it is well dispersed.', 'Prepare to be flexible, so that if the winter period is extended through bad weather, you can adjust the amount of feeding planned and extend for any additional days or weeks that are needed. This makes sure that birds are not left with a ‘hungry gap’ before the natural seed resources on the farm become available.', 'The following example mix will supply a range of seeds readily taken by most farmland birds.', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">AB13 </t>
   </si>
   <si>
-    <t>Not Available</t>
+    <t xml:space="preserve">Not Available</t>
   </si>
   <si>
     <t xml:space="preserve">AB14 </t>
   </si>
   <si>
-    <t>£354 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['An open-structured cereal crop provides summer foraging sites for declining and localised farmland birds, such as yellowhammer and reed bunting, and habitat for skylarks, brown hare, rare arable plants and pollinator species, such as bumblebees, solitary bees, butterflies, hoverflies and beneficial insects.'].''</t>
-  </si>
-  <si>
-    <t>harvest the crop before 15 July
+    <t xml:space="preserve">£354 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['An open-structured cereal crop provides summer foraging sites for declining and localised farmland birds, such as yellowhammer and reed bunting, and habitat for skylarks, brown hare, rare arable plants and pollinator species, such as bumblebees, solitary bees, butterflies, hoverflies and beneficial insects.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harvest the crop before 15 July
 apply any herbicides except those on the list of permitted active ingredients
 apply insecticides after 15 March</t>
   </si>
@@ -95,34 +101,34 @@
     <t xml:space="preserve">AB15 </t>
   </si>
   <si>
-    <t>£593 hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It provides food for farmland wildlife, such as pollen and nectar for pollinators including bumblebees, solitary bees, butterflies and hoverflies. As well as invertebrate chick food for farmland birds around the sown fallow between April and July. It can also be a useful part of a rotation aimed at reducing blackgrass populations.'].''</t>
-  </si>
-  <si>
-    <t>Graze or conserve forage</t>
+    <t xml:space="preserve">£593 hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides food for farmland wildlife, such as pollen and nectar for pollinators including bumblebees, solitary bees, butterflies and hoverflies. As well as invertebrate chick food for farmland birds around the sown fallow between April and July. It can also be a useful part of a rotation aimed at reducing blackgrass populations.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graze or conserve forage</t>
   </si>
   <si>
     <t xml:space="preserve">AB16 </t>
   </si>
   <si>
-    <t>£747 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It provides important food resources for farmland birds, such as tree sparrow and corn bunting, and a range of nectar feeding insects, including butterflies, solitary bees, hoverflies and bumblebees, on arable and mixed farms.'].''</t>
+    <t xml:space="preserve">£747 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides important food resources for farmland birds, such as tree sparrow and corn bunting, and a range of nectar feeding insects, including butterflies, solitary bees, hoverflies and bumblebees, on arable and mixed farms.'].''</t>
   </si>
   <si>
     <t xml:space="preserve">AB2 </t>
   </si>
   <si>
-    <t>£58 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It provides a winter food source for seed-eating birds, which feed on spilt grain and the seeds of broad-leaved weeds. It also provides a foraging habitat for brown hare.'].''</t>
-  </si>
-  <si>
-    <t>apply pre-harvest desiccants
+    <t xml:space="preserve">£58 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides a winter food source for seed-eating birds, which feed on spilt grain and the seeds of broad-leaved weeds. It also provides a foraging habitat for brown hare.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply pre-harvest desiccants
 apply post-harvest herbicides
 apply any fertilisers, manures or lime to the stubble
 top or graze</t>
@@ -131,26 +137,26 @@
     <t xml:space="preserve">AB3 </t>
   </si>
   <si>
-    <t>£764 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It provides nesting and foraging habitats for:'].''</t>
-  </si>
-  <si>
-    <t>apply any fertilisers, manures or lime
+    <t xml:space="preserve">£764 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides nesting and foraging habitats for:'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply any fertilisers, manures or lime
 use any pesticides, except for herbicides to weed-wipe or spot-treat for the control of injurious weeds, invasive non-natives, nettles or bracken</t>
   </si>
   <si>
     <t xml:space="preserve">AB6 </t>
   </si>
   <si>
-    <t>£589 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It provides important winter food sources for seed-eating birds, spring and summer foraging and nesting habitat for other farmland birds and undisturbed habitat for other farmland wildlife including many pollinators.', 'If successful there will be:'].''</t>
-  </si>
-  <si>
-    <t>use pre-harvest desiccants
+    <t xml:space="preserve">£589 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides important winter food sources for seed-eating birds, spring and summer foraging and nesting habitat for other farmland birds and undisturbed habitat for other farmland wildlife including many pollinators.', 'If successful there will be:'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use pre-harvest desiccants
 apply fertilisers, manures or lime to the stubble
 apply pesticides to the stubble, except herbicides to control problem grass weeds by spraying the affected area from 15 May
 top or graze</t>
@@ -159,13 +165,13 @@
     <t xml:space="preserve">AB7 </t>
   </si>
   <si>
-    <t>£596 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It provides a valuable seed source in grass-dominated areas, from any unripe spilt grain after harvest and from the stubble in winter. It also delivers resource protection benefits when compared to maize.', 'During the summer there will be foraging for declining and localised farmland birds, small mammals and pollinator species such as bees and other beneficial insects.', 'A weedy stubble will provide over-wintering habitat for insects and seed eating farmland birds.'].''</t>
-  </si>
-  <si>
-    <t>apply any herbicides except those on the list of permitted active ingredients
+    <t xml:space="preserve">£596 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides a valuable seed source in grass-dominated areas, from any unripe spilt grain after harvest and from the stubble in winter. It also delivers resource protection benefits when compared to maize.', 'During the summer there will be foraging for declining and localised farmland birds, small mammals and pollinator species such as bees and other beneficial insects.', 'A weedy stubble will provide over-wintering habitat for insects and seed eating farmland birds.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply any herbicides except those on the list of permitted active ingredients
 apply any insecticides between 15 March and the following harvest
 apply any fertilisers, manures or lime to the stubble
 top or graze</t>
@@ -174,22 +180,22 @@
     <t xml:space="preserve">AB8 </t>
   </si>
   <si>
-    <t>£798 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['Flower-rich grass margins or plots provide important habitat and foraging sites for invertebrates, including wild pollinators such as bumblebees, solitary bees, butterflies and hoverflies, and farmland birds like the yellowhammer.', 'In year 1, a margin or plot will be established in the spring/summer/autumn.  The seed mix will contain a minimum of 4 grass species and 10 wildflower species.  The grass component will not exceed 90% of the total seed mix by weight.  No individual flower species will exceed 25% of the total wildflower species component by weight.', 'Once established, the margin/plot will flower throughout the summer to provide an abundant supply of pollen and nectar.', 'In the late summer / autumn, cutting or grazing the majority of the margin or plot allows for new growth in the spring whilst the remainder provides a refuge for wildlife.  Dense cuttings will be removed.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option we recommend that you use best practice.', 'We recommend that you:', 'When flower rich margins and plots are fully established (typically from the second spring after sowing) you should manage as follows.', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful but they are not requirements for this item.', 'Use lower yielding areas if they have a sunny aspect, or face south or south-southwest. Avoid planting under overhanging trees, next to tall hedges or on land facing north or east. Leave access to surrounding crops to allow for management.', 'Avoid very fertile soils and areas infested with injurious weeds such as creeping thistle, docks, nettles and common ragwort.', 'This option should not be established in field locations known to support important groups of rare arable plants.', 'Wide margins and big blocks let insects move to safety when you are spraying fields. Spacing 5 patches of 0.5ha evenly within 100ha meets the food needs of many pollinators.', 'The seed mix should contain both grasses and perennial flowering plants, such as:', 'Sow at 20kg per ha to provide enough plants when the mixture is established.', 'Use existing suitable flower-rich plots or margins instead of re-sowing, provided they offer a variety of flowers that deliver a rich supply of pollen and nectar during the summer.', 'To meet option requirements, establish the mix in spring or late summer / early autumn of year 1 of the agreement.', 'Create a firm, consolidated, clean / sterile seed bed.  Wildflower seed is very small so will not germinate if drilled too deeply.  Broadcast or trickle the seed on top of the seedbed and roll or harrow to help ensure good seed to soil contact, retain moisture and reduce movement of slugs within the soil profile.', 'Check for slug damage and control using wildlife-friendly slug bait where necessary.', 'Top emerging flowers and weeds at least 3 times in year 1 for spring sowings and at least twice in year 2 for late summer / autumn sowings. Regular topping prevents weeds smothering the slow-growing flowers so that all sown species establish successfully and toppings can be left.', 'Before the beginning of April each year make sure vegetation is short enough to allow flower species to grow without competition from dominant grasses. Cut and remove summer growth between 15 August and 31 October to help reduce soil fertility and boost flower numbers in subsequent years.', 'Always leave 10% of the option area uncut or ungrazed to provide overwinter nesting and safe refuges for pollinators and other invertebrates.', 'Remember to retain flower-rich margins and plots until at least 31 December in year 5 of the agreement.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme.\u202fCapital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+    <t xml:space="preserve">£798 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Flower-rich grass margins or plots provide important habitat and foraging sites for invertebrates, including wild pollinators such as bumblebees, solitary bees, butterflies and hoverflies, and farmland birds like the yellowhammer.', 'In year 1, a margin or plot will be established in the spring/summer/autumn.  The seed mix will contain a minimum of 4 grass species and 10 wildflower species.  The grass component will not exceed 90% of the total seed mix by weight.  No individual flower species will exceed 25% of the total wildflower species component by weight.', 'Once established, the margin/plot will flower throughout the summer to provide an abundant supply of pollen and nectar.', 'In the late summer / autumn, cutting or grazing the majority of the margin or plot allows for new growth in the spring whilst the remainder provides a refuge for wildlife.  Dense cuttings will be removed.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option we recommend that you use best practice.', 'We recommend that you:', 'When flower rich margins and plots are fully established (typically from the second spring after sowing) you should manage as follows.', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful but they are not requirements for this item.', 'Use lower yielding areas if they have a sunny aspect, or face south or south-southwest. Avoid planting under overhanging trees, next to tall hedges or on land facing north or east. Leave access to surrounding crops to allow for management.', 'Avoid very fertile soils and areas infested with injurious weeds such as creeping thistle, docks, nettles and common ragwort.', 'This option should not be established in field locations known to support important groups of rare arable plants.', 'Wide margins and big blocks let insects move to safety when you are spraying fields. Spacing 5 patches of 0.5ha evenly within 100ha meets the food needs of many pollinators.', 'The seed mix should contain both grasses and perennial flowering plants, such as:', 'Sow at 20kg per ha to provide enough plants when the mixture is established.', 'Use existing suitable flower-rich plots or margins instead of re-sowing, provided they offer a variety of flowers that deliver a rich supply of pollen and nectar during the summer.', 'To meet option requirements, establish the mix in spring or late summer / early autumn of year 1 of the agreement.', 'Create a firm, consolidated, clean / sterile seed bed.  Wildflower seed is very small so will not germinate if drilled too deeply.  Broadcast or trickle the seed on top of the seedbed and roll or harrow to help ensure good seed to soil contact, retain moisture and reduce movement of slugs within the soil profile.', 'Check for slug damage and control using wildlife-friendly slug bait where necessary.', 'Top emerging flowers and weeds at least 3 times in year 1 for spring sowings and at least twice in year 2 for late summer / autumn sowings. Regular topping prevents weeds smothering the slow-growing flowers so that all sown species establish successfully and toppings can be left.', 'Before the beginning of April each year make sure vegetation is short enough to allow flower species to grow without competition from dominant grasses. Cut and remove summer growth between 15 August and 31 October to help reduce soil fertility and boost flower numbers in subsequent years.', 'Always leave 10% of the option area uncut or ungrazed to provide overwinter nesting and safe refuges for pollinators and other invertebrates.', 'Remember to retain flower-rich margins and plots until at least 31 December in year 5 of the agreement.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme.\u202fCapital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
   </si>
   <si>
     <t xml:space="preserve">AB9 </t>
   </si>
   <si>
-    <t>£853 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It provides important food resources (small seeds) for farmland birds, especially in autumn and winter.', 'The flowering plants will benefit insects including bumblebees, solitary bees, butterflies and hoverflies.'].''</t>
-  </si>
-  <si>
-    <t>allow an individual crop group to exceed 90% of the total mix by weight
+    <t xml:space="preserve">£853 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides important food resources (small seeds) for farmland birds, especially in autumn and winter.', 'The flowering plants will benefit insects including bumblebees, solitary bees, butterflies and hoverflies.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow an individual crop group to exceed 90% of the total mix by weight
 sow the following crops:
       Artichokes
       Canary grass
@@ -210,52 +216,52 @@
     <t xml:space="preserve">AC1 </t>
   </si>
   <si>
-    <t>Up to 100% of actual cost.</t>
-  </si>
-  <si>
-    <t>If successful there will be greater public accessibility of the countryside or enhanced educational visits.</t>
-  </si>
-  <si>
-    <t>No Item</t>
+    <t xml:space="preserve">Up to 100% of actual cost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be greater public accessibility of the countryside or enhanced educational visits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Item</t>
   </si>
   <si>
     <t xml:space="preserve">AC2 </t>
   </si>
   <si>
-    <t>£277.26 once per agreement.</t>
-  </si>
-  <si>
-    <t>This allows one member from the agreement holding to go to a training course and become accredited at carrying out enhanced educational experiences.</t>
+    <t xml:space="preserve">£277.26 once per agreement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This allows one member from the agreement holding to go to a training course and become accredited at carrying out enhanced educational experiences.</t>
   </si>
   <si>
     <t xml:space="preserve">AQ1 </t>
   </si>
   <si>
-    <t>£2,760 per passageway/channel</t>
-  </si>
-  <si>
-    <t>The frequent removal of slurry from livestock housing will reduce the levels of ammonia released into the air that impact air quality and the natural environment.</t>
+    <t xml:space="preserve">£2,760 per passageway/channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The frequent removal of slurry from livestock housing will reduce the levels of ammonia released into the air that impact air quality and the natural environment.</t>
   </si>
   <si>
     <t xml:space="preserve">AQ2 </t>
   </si>
   <si>
-    <t>£72 per m2</t>
-  </si>
-  <si>
-    <t>Reducing the mixing of urine and faeces on livestock housing floors and the rapid removal of the urine will limit the chemical reactions that release ammonia. Low emission floors with suitable slurry scrapers effectively reduces the surface area of slurry that is exposed to the air, thereby reducing ammonia emissions from the housing. Ammonia emissions are linked to poor air quality that impacts the natural environment and human health. Ammonia in air and associated nitrogen deposition harms sensitive habitats and species.</t>
+    <t xml:space="preserve">£72 per m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reducing the mixing of urine and faeces on livestock housing floors and the rapid removal of the urine will limit the chemical reactions that release ammonia. Low emission floors with suitable slurry scrapers effectively reduces the surface area of slurry that is exposed to the air, thereby reducing ammonia emissions from the housing. Ammonia emissions are linked to poor air quality that impacts the natural environment and human health. Ammonia in air and associated nitrogen deposition harms sensitive habitats and species.</t>
   </si>
   <si>
     <t xml:space="preserve">BE1 </t>
   </si>
   <si>
-    <t>£553 per hectare (ha)</t>
-  </si>
-  <si>
-    <t>['If successful, trees will be protected from agricultural operations and kept as important features in the local landscape. Tree roots will be protected from damage by cultivations with a fertiliser-free grass buffer. Undisturbed standing and fallen deadwood will provide habitat for invertebrates.'].''</t>
-  </si>
-  <si>
-    <t>Apply any fertilisers or manures
+    <t xml:space="preserve">£553 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['If successful, trees will be protected from agricultural operations and kept as important features in the local landscape. Tree roots will be protected from damage by cultivations with a fertiliser-free grass buffer. Undisturbed standing and fallen deadwood will provide habitat for invertebrates.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply any fertilisers or manures
 Apply any lime
 Plough, cultivate or re-seed
 Use supplementary feed
@@ -268,10 +274,10 @@
     <t xml:space="preserve">BE2 </t>
   </si>
   <si>
-    <t>£295 per hectare (ha)</t>
-  </si>
-  <si>
-    <t>Apply any fertilisers or manures
+    <t xml:space="preserve">£295 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply any fertilisers or manures
 Apply any lime
 Plough, cultivate or re-seed
 Use supplementary feed
@@ -284,13 +290,13 @@
     <t xml:space="preserve">BE3 </t>
   </si>
   <si>
-    <t>£13 per 100m for 1 side of a hedge.</t>
-  </si>
-  <si>
-    <t>['Managing hedges in this way increases the availability of blossom for invertebrates. By allowing fruit and berries to ripen it provides food for overwintering birds. It will also improve the structure and longevity of hedgerows, and maintains them as distinctive and historic landscape features.'].''</t>
-  </si>
-  <si>
-    <t>Supplementary feed livestock within 2m of the centre of the hedge
+    <t xml:space="preserve">£13 per 100m for 1 side of a hedge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Managing hedges in this way increases the availability of blossom for invertebrates. By allowing fruit and berries to ripen it provides food for overwintering birds. It will also improve the structure and longevity of hedgerows, and maintains them as distinctive and historic landscape features.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary feed livestock within 2m of the centre of the hedge
 Remove any tree limbs, including lower limbs, or mature ivy growth from hedgerow trees
 Remove any standing deadwood</t>
   </si>
@@ -298,13 +304,13 @@
     <t xml:space="preserve">BE4 </t>
   </si>
   <si>
-    <t>£264 per hectare (ha)</t>
-  </si>
-  <si>
-    <t>['If successful there will be a well-managed traditional orchard with a range of healthy young and old trees. This includes established grass, tall bushy hedges, scrub and tall herb vegetation abundant with invertebrates, birds and wildflowers.', 'Provide a range of healthy young and mature fruit trees. Restore tree numbers by planting fruit trees on vigorous root stock, as detailed in the capital works plan. New trees will be formatively pruned with the base kept free of vegetation for at least three years after planting.  Protect all trees from livestock and wild animals. Keep all mature and over mature trees, standing deadwood and deadwood on living trees.', 'Manage the grass by grazing or cutting for hay. During the autumn and winter allow some of this grass to go to seed. Manage any scrub that’s present to ensure there is a minimum present throughout the year. Control invasive species.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'Traditional orchards are defined as groups of fruit and nut trees planted on vigorous rootstocks at low densities in permanent grassland, and managed in a low intensity way. This includes cobnut plats.', 'Prevent weeds from competing with newly planted trees for water and nutrients. Keep a 1m diameter circle clear of all vegetation for at least the first 3 years after planting.', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
-  </si>
-  <si>
-    <t>Plough, cultivate or re-seed
+    <t xml:space="preserve">£264 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['If successful there will be a well-managed traditional orchard with a range of healthy young and old trees. This includes established grass, tall bushy hedges, scrub and tall herb vegetation abundant with invertebrates, birds and wildflowers.', 'Provide a range of healthy young and mature fruit trees. Restore tree numbers by planting fruit trees on vigorous root stock, as detailed in the capital works plan. New trees will be formatively pruned with the base kept free of vegetation for at least three years after planting.  Protect all trees from livestock and wild animals. Keep all mature and over mature trees, standing deadwood and deadwood on living trees.', 'Manage the grass by grazing or cutting for hay. During the autumn and winter allow some of this grass to go to seed. Manage any scrub that’s present to ensure there is a minimum present throughout the year. Control invasive species.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'Traditional orchards are defined as groups of fruit and nut trees planted on vigorous rootstocks at low densities in permanent grassland, and managed in a low intensity way. This includes cobnut plats.', 'Prevent weeds from competing with newly planted trees for water and nutrients. Keep a 1m diameter circle clear of all vegetation for at least the first 3 years after planting.', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plough, cultivate or re-seed
 Roll or harrow
 Apply any fertilisers or manures
 Apply lime
@@ -317,194 +323,194 @@
     <t xml:space="preserve">BE5 </t>
   </si>
   <si>
-    <t>£471 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>If successful there will be a well-managed traditional orchard with a range of healthy young and old trees. This includes established grass, tall bushy hedges, scrub and tall herb vegetation abundant with invertebrates, birds and wildflowers.</t>
+    <t xml:space="preserve">£471 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be a well-managed traditional orchard with a range of healthy young and old trees. This includes established grass, tall bushy hedges, scrub and tall herb vegetation abundant with invertebrates, birds and wildflowers.</t>
   </si>
   <si>
     <t xml:space="preserve">BE6 </t>
   </si>
   <si>
-    <t>£488 for each veteran tree, contained within the agreement management plan, that receives veteran tree surgery in the claim year.</t>
-  </si>
-  <si>
-    <t>It reduces the rate of loss of veteran trees by carrying out specialist tree surgery to extend their lifespan.</t>
+    <t xml:space="preserve">£488 for each veteran tree, contained within the agreement management plan, that receives veteran tree surgery in the claim year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It reduces the rate of loss of veteran trees by carrying out specialist tree surgery to extend their lifespan.</t>
   </si>
   <si>
     <t xml:space="preserve">BE7 </t>
   </si>
   <si>
-    <t>£146 per tree</t>
-  </si>
-  <si>
-    <t>[].''</t>
-  </si>
-  <si>
-    <t>Prune more than one-third of the woody growth in the crown of each specified tree in the specified years
+    <t xml:space="preserve">£146 per tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prune more than one-third of the woody growth in the crown of each specified tree in the specified years
 Remove fallen or pruned wood from the orchard (unless diseased).</t>
   </si>
   <si>
     <t xml:space="preserve">BN1 </t>
   </si>
   <si>
-    <t>£67.25 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>If successful there will be a rebuilt length of stone-faced bank.</t>
+    <t xml:space="preserve">£67.25 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be a rebuilt length of stone-faced bank.</t>
   </si>
   <si>
     <t xml:space="preserve">BN10 </t>
   </si>
   <si>
-    <t>£5.82 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>If successful there will be lengths of hedgerow rejuvenated with new growth to form a continuous hedge.</t>
+    <t xml:space="preserve">£5.82 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be lengths of hedgerow rejuvenated with new growth to form a continuous hedge.</t>
   </si>
   <si>
     <t xml:space="preserve">BN11 </t>
   </si>
   <si>
-    <t>£22.97 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>There will be new lengths of hedgerow planted with locally occurring native species.</t>
+    <t xml:space="preserve">£22.97 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There will be new lengths of hedgerow planted with locally occurring native species.</t>
   </si>
   <si>
     <t xml:space="preserve">BN12 </t>
   </si>
   <si>
-    <t>£31.91 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>There will be a rebuilt stone wall which will help to control livestock and conserve traditional landscapes.</t>
+    <t xml:space="preserve">£31.91 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There will be a rebuilt stone wall which will help to control livestock and conserve traditional landscapes.</t>
   </si>
   <si>
     <t xml:space="preserve">BN13 </t>
   </si>
   <si>
-    <t>£5.54 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+    <t xml:space="preserve">£5.54 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
   </si>
   <si>
     <t xml:space="preserve">BN14 </t>
   </si>
   <si>
-    <t>£164.50 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>If successful there will be a rebuilt stone wall on sites where there was insufficient re-usable stone on the farm.</t>
+    <t xml:space="preserve">£164.50 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be a rebuilt stone wall on sites where there was insufficient re-usable stone on the farm.</t>
   </si>
   <si>
     <t xml:space="preserve">BN2 </t>
   </si>
   <si>
-    <t>£163.26 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+    <t xml:space="preserve">£163.26 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
   </si>
   <si>
     <t xml:space="preserve">BN3 </t>
   </si>
   <si>
-    <t>£20.59 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>If successful there will be a new length of earth bank which will conserve and enhance landscape character and provide a valuable wildlife habitat.</t>
+    <t xml:space="preserve">£20.59 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be a new length of earth bank which will conserve and enhance landscape character and provide a valuable wildlife habitat.</t>
   </si>
   <si>
     <t xml:space="preserve">BN4 </t>
   </si>
   <si>
-    <t>£10.54 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>If successful there will be a length of rebuilt earth bank which will conserve and enhance landscape character and provide a valuable wildlife habitat.</t>
+    <t xml:space="preserve">£10.54 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be a length of rebuilt earth bank which will conserve and enhance landscape character and provide a valuable wildlife habitat.</t>
   </si>
   <si>
     <t xml:space="preserve">BN5 </t>
   </si>
   <si>
-    <t>£13.52 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>Lengths of hedgerow will rejuvenate with new growth to form a continuous hedge.</t>
+    <t xml:space="preserve">£13.52 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengths of hedgerow will rejuvenate with new growth to form a continuous hedge.</t>
   </si>
   <si>
     <t xml:space="preserve">BN6 </t>
   </si>
   <si>
-    <t>£5.33 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+    <t xml:space="preserve">£5.33 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
   </si>
   <si>
     <t xml:space="preserve">BN7 </t>
   </si>
   <si>
-    <t>£17.22 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>Lengths of hedgerow with gaps planted up will create a continuous length of hedge.</t>
+    <t xml:space="preserve">£17.22 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengths of hedgerow with gaps planted up will create a continuous length of hedge.</t>
   </si>
   <si>
     <t xml:space="preserve">BN8 </t>
   </si>
   <si>
-    <t>£4.39 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>If successful there will be lengths of hedgerow which have been re-profiled and had slipped soil replaced.</t>
+    <t xml:space="preserve">£4.39 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be lengths of hedgerow which have been re-profiled and had slipped soil replaced.</t>
   </si>
   <si>
     <t xml:space="preserve">BN9 </t>
   </si>
   <si>
-    <t>£7.06 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
-  </si>
-  <si>
-    <t>If successful, lengths of restored hedgerow which required substantial pre-work or were located on difficult sites will be restored.</t>
+    <t xml:space="preserve">£7.06 per metre (m). The payment rate is for the total length of boundary under the option (not for each side of the boundary).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful, lengths of restored hedgerow which required substantial pre-work or were located on difficult sites will be restored.</t>
   </si>
   <si>
     <t xml:space="preserve">CT1 </t>
   </si>
   <si>
-    <t>£620 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>It is designed to make sure that existing coastal sand dunes and vegetated shingle sites are managed appropriately. This includes both sites in good condition or those that need restoration, such as where management has stopped or scrub has invaded.</t>
+    <t xml:space="preserve">£620 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is designed to make sure that existing coastal sand dunes and vegetated shingle sites are managed appropriately. This includes both sites in good condition or those that need restoration, such as where management has stopped or scrub has invaded.</t>
   </si>
   <si>
     <t xml:space="preserve">CT3 </t>
   </si>
   <si>
-    <t>£483 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>It maintains coastal saltmarsh in good condition and restores saltmarsh in unfavourable condition when grazing or cutting are key factors.</t>
+    <t xml:space="preserve">£483 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It maintains coastal saltmarsh in good condition and restores saltmarsh in unfavourable condition when grazing or cutting are key factors.</t>
   </si>
   <si>
     <t xml:space="preserve">CT5 </t>
   </si>
   <si>
-    <t>£494 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>It creates inter-tidal and saline habitats, including transitional areas (transitions between saltmarsh and nearby habitats), following the unmanaged breach of sea walls or the overtopping of sea walls.</t>
+    <t xml:space="preserve">£494 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It creates inter-tidal and saline habitats, including transitional areas (transitions between saltmarsh and nearby habitats), following the unmanaged breach of sea walls or the overtopping of sea walls.</t>
   </si>
   <si>
     <t xml:space="preserve">CT7 </t>
   </si>
   <si>
-    <t>It creates inter-tidal and saline habitats, including transitional areas (transitions between saltmarsh and nearby habitats), on grassland or improved grassland.</t>
+    <t xml:space="preserve">It creates inter-tidal and saline habitats, including transitional areas (transitions between saltmarsh and nearby habitats), on grassland or improved grassland.</t>
   </si>
   <si>
     <t xml:space="preserve">ED1 </t>
   </si>
   <si>
-    <t>£363 per visit.</t>
-  </si>
-  <si>
-    <t>['It allows for school pupils and care farming clients to visit the site to learn, understand and become engaged with farming and the environment.'].''</t>
-  </si>
-  <si>
-    <t>the children cannot be older than 18. There is no age limit on care farming
+    <t xml:space="preserve">£363 per visit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It allows for school pupils and care farming clients to visit the site to learn, understand and become engaged with farming and the environment.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the children cannot be older than 18. There is no age limit on care farming
 charge for visits
 receive any other direct income relating to the educational visit
 youth clubs, toddler groups and extra-curricular events are not eligible visitors
@@ -516,133 +522,133 @@
     <t xml:space="preserve">FG1 </t>
   </si>
   <si>
-    <t>£6.34 per metre (m).</t>
-  </si>
-  <si>
-    <t>This item helps control livestock, protects environmental features and helps to manage habitats.</t>
+    <t xml:space="preserve">£6.34 per metre (m).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item helps control livestock, protects environmental features and helps to manage habitats.</t>
   </si>
   <si>
     <t xml:space="preserve">FG10 </t>
   </si>
   <si>
-    <t>£8.09 per metre.</t>
-  </si>
-  <si>
-    <t>It will protect newly coppiced woodland from deer browsing as part of a wider woodland management project.</t>
+    <t xml:space="preserve">£8.09 per metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will protect newly coppiced woodland from deer browsing as part of a wider woodland management project.</t>
   </si>
   <si>
     <t xml:space="preserve">FG11 </t>
   </si>
   <si>
-    <t>£212.56 per unit.</t>
-  </si>
-  <si>
-    <t>It will protect areas of woodland that are approximately 16 square metres in size from deer browsing. This will allow monitoring of the area’s regeneration potential and the impact of browsing.</t>
+    <t xml:space="preserve">£212.56 per unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will protect areas of woodland that are approximately 16 square metres in size from deer browsing. This will allow monitoring of the area’s regeneration potential and the impact of browsing.</t>
   </si>
   <si>
     <t xml:space="preserve">FG12 </t>
   </si>
   <si>
-    <t>£489.90 per gate.</t>
-  </si>
-  <si>
-    <t>Wooden gates help stock management, or stop livestock from getting into an area where they may cause damage, such as a historic or archaeological feature.</t>
+    <t xml:space="preserve">£489.90 per gate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden gates help stock management, or stop livestock from getting into an area where they may cause damage, such as a historic or archaeological feature.</t>
   </si>
   <si>
     <t xml:space="preserve">FG13 </t>
   </si>
   <si>
-    <t>£651.42 per post.</t>
-  </si>
-  <si>
-    <t>It will help conserve local landscape character and sites of historic interest by establishing stone gate posts made from local materials in local styles.</t>
+    <t xml:space="preserve">£651.42 per post.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will help conserve local landscape character and sites of historic interest by establishing stone gate posts made from local materials in local styles.</t>
   </si>
   <si>
     <t xml:space="preserve">FG14 </t>
   </si>
   <si>
-    <t>£61.81 per gate.</t>
-  </si>
-  <si>
-    <t>As badgers can pass freely through the fence this item reduces the damage they cause to fence lines (which were themselves installed to benefit habitats through appropriate grazing, and so on).</t>
+    <t xml:space="preserve">£61.81 per gate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As badgers can pass freely through the fence this item reduces the damage they cause to fence lines (which were themselves installed to benefit habitats through appropriate grazing, and so on).</t>
   </si>
   <si>
     <t xml:space="preserve">FG15 </t>
   </si>
   <si>
-    <t>£532.80 per gate.</t>
-  </si>
-  <si>
-    <t>This item prevents livestock from entering watercourse channels. It also stops livestock from trampling waterside banks and leaves bankside vegetation lush and unbroken by livestock paths.</t>
+    <t xml:space="preserve">£532.80 per gate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item prevents livestock from entering watercourse channels. It also stops livestock from trampling waterside banks and leaves bankside vegetation lush and unbroken by livestock paths.</t>
   </si>
   <si>
     <t xml:space="preserve">FG2 </t>
   </si>
   <si>
-    <t>£7.47 per metre (m).</t>
-  </si>
-  <si>
-    <t>This item protects environmental features from livestock and helps manage habitats.</t>
+    <t xml:space="preserve">£7.47 per metre (m).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item protects environmental features from livestock and helps manage habitats.</t>
   </si>
   <si>
     <t xml:space="preserve">FG3 </t>
   </si>
   <si>
-    <t>£5.66 per metre (m).</t>
-  </si>
-  <si>
-    <t>If successful this item will help control livestock and protect environmental features. It will also help to manage habitats.</t>
+    <t xml:space="preserve">£5.66 per metre (m).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful this item will help control livestock and protect environmental features. It will also help to manage habitats.</t>
   </si>
   <si>
     <t xml:space="preserve">FG4 </t>
   </si>
   <si>
-    <t>£5.65 per metre (m).</t>
+    <t xml:space="preserve">£5.65 per metre (m).</t>
   </si>
   <si>
     <t xml:space="preserve">FG5 </t>
   </si>
   <si>
-    <t>£3.98 per metre (m).</t>
-  </si>
-  <si>
-    <t>This supplement helps control livestock, protects environmental features and helps to manage habitats on difficult sites.</t>
+    <t xml:space="preserve">£3.98 per metre (m).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This supplement helps control livestock, protects environmental features and helps to manage habitats on difficult sites.</t>
   </si>
   <si>
     <t xml:space="preserve">FG9 </t>
   </si>
   <si>
-    <t>£10.27 per metre (m).</t>
-  </si>
-  <si>
-    <t>It will protect newly created or existing woodland from deer browsing as part of a wider woodland creation or woodland management project.</t>
+    <t xml:space="preserve">£10.27 per metre (m).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will protect newly created or existing woodland from deer browsing as part of a wider woodland creation or woodland management project.</t>
   </si>
   <si>
     <t xml:space="preserve">FM2 </t>
   </si>
   <si>
-    <t>Up to 100% of actual costs.</t>
-  </si>
-  <si>
-    <t>If successful this item will result in large scale restoration and creation of priority habitats and bespoke management for priority species.</t>
+    <t xml:space="preserve">Up to 100% of actual costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful this item will result in large scale restoration and creation of priority habitats and bespoke management for priority species.</t>
   </si>
   <si>
     <t xml:space="preserve">FY1 </t>
   </si>
   <si>
-    <t>£265 per unit.</t>
-  </si>
-  <si>
-    <t>It will provide a safe, temporary vantage point from which to cull deer, reducing the impact their browsing has on the land.</t>
+    <t xml:space="preserve">£265 per unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will provide a safe, temporary vantage point from which to cull deer, reducing the impact their browsing has on the land.</t>
   </si>
   <si>
     <t xml:space="preserve">FY2 </t>
   </si>
   <si>
-    <t>Under this item we will pay 60% of actual costs (including VAT and agent’s fees, where applicable).</t>
-  </si>
-  <si>
-    <t>It makes woodlands more accessible by road, allowing timber and other forest products to be moved more easily. This improves the management of the woodland.</t>
+    <t xml:space="preserve">Under this item we will pay 60% of actual costs (including VAT and agent’s fees, where applicable).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It makes woodlands more accessible by road, allowing timber and other forest products to be moved more easily. This improves the management of the woodland.</t>
   </si>
   <si>
     <t xml:space="preserve">FY2A </t>
@@ -651,13 +657,13 @@
     <t xml:space="preserve">GS1 </t>
   </si>
   <si>
-    <t>£333 per hectare (ha)</t>
-  </si>
-  <si>
-    <t>['It provides year-round habitat and food for a range of wildlife within grass fields.'].''</t>
-  </si>
-  <si>
-    <t>cut or graze more frequently than one year in every 5
+    <t xml:space="preserve">£333 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides year-round habitat and food for a range of wildlife within grass fields.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut or graze more frequently than one year in every 5
 operate machinery or carry out other activities during the bird breeding season, they may disturb breeding birds or damage nests
 apply any fertilisers or manures
 apply any lime
@@ -670,34 +676,34 @@
     <t xml:space="preserve">GS10 </t>
   </si>
   <si>
-    <t>£547 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['It will provide habitat in wet grassland for wintering wildfowl and wading birds. Fields will have wet areas throughout the winter, attracting wading birds and wildfowl, which will be able to feed and roost undisturbed.'].''</t>
+    <t xml:space="preserve">£547 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It will provide habitat in wet grassland for wintering wildfowl and wading birds. Fields will have wet areas throughout the winter, attracting wading birds and wildfowl, which will be able to feed and roost undisturbed.'].''</t>
   </si>
   <si>
     <t xml:space="preserve">GS13 </t>
   </si>
   <si>
-    <t>£528 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>It will maintain or increase the quantity of the targeted habitat, species or features. Many priority species such as bumblebees, butterflies, birds or bats will also benefit. Buried archaeological features will not be disturbed.</t>
+    <t xml:space="preserve">£528 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will maintain or increase the quantity of the targeted habitat, species or features. Many priority species such as bumblebees, butterflies, birds or bats will also benefit. Buried archaeological features will not be disturbed.</t>
   </si>
   <si>
     <t xml:space="preserve">GS14 </t>
   </si>
   <si>
-    <t>It will establish a suitable sward with a range of grass, legume and wildflower species. This will protect and enhance the targeted feature, as well as benefiting a range of other species, such as bumblebees, butterflies, birds or bats. Buried archaeological features will not be disturbed.</t>
+    <t xml:space="preserve">It will establish a suitable sward with a range of grass, legume and wildflower species. This will protect and enhance the targeted feature, as well as benefiting a range of other species, such as bumblebees, butterflies, birds or bats. Buried archaeological features will not be disturbed.</t>
   </si>
   <si>
     <t xml:space="preserve">GS15 </t>
   </si>
   <si>
-    <t>£157 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>cut hay before 5 July (outside SDA’s) or 15 July (in SDA’s)
+    <t xml:space="preserve">£157 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut hay before 5 July (outside SDA’s) or 15 July (in SDA’s)
 cut haylage before 1 August
 graze meadows for at least 7 weeks before cutting.</t>
   </si>
@@ -705,27 +711,1309 @@
     <t xml:space="preserve">GS16 </t>
   </si>
   <si>
-    <t>£95 per hectare (ha).</t>
-  </si>
-  <si>
-    <t>['This is a short-term incentive to reduce rush cover in parcels with heavy infestations. It will help prevent the loss of botanically rich grasslands or provide nesting areas for breeding wading birds.', 'During the spring and summer, grazing and/or cutting will reduce the height and density of rush growth by autumn.\nBy year 3 of the agreement, this will have reduced dense rush growth to less than 30% of the parcel area.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities:', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'The aim is to reduce heavy infestations of rushes to a cover below 30%. Cover should then be maintained at between 10% and 30%.\nAlso:', 'The following machines are most appropriate for rush cutting.'].''</t>
-  </si>
-  <si>
-    <t>cut rushes between 15 March and 15 July</t>
+    <t xml:space="preserve">£95 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['This is a short-term incentive to reduce rush cover in parcels with heavy infestations. It will help prevent the loss of botanically rich grasslands or provide nesting areas for breeding wading birds.', 'During the spring and summer, grazing and/or cutting will reduce the height and density of rush growth by autumn.\nBy year 3 of the agreement, this will have reduced dense rush growth to less than 30% of the parcel area.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities:', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'The aim is to reduce heavy infestations of rushes to a cover below 30%. Cover should then be maintained at between 10% and 30%.\nAlso:', 'The following machines are most appropriate for rush cutting.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut rushes between 15 March and 15 July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£28 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut for hay or silage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£151 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['This will be grassland that contains some flowering grasses and wild flowers, and a variety of vegetation heights. This will provide nectar and shelter for invertebrates and an increased food supply for birds.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£515 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['There will be an abundance of ryegrass seed in the autumn, providing food for many birds (including yellowhammers and other buntings, gamebirds such as grey partridge, and skylarks) until late winter.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take the first silage cut later than 31 May. Do not cut more than once, except for swards containing at least 70% Italian or hybrid ryegrass
+do not take a second cut later than 30 June for swards containing at least 70% Italian or hybrid ryegrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£382 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vigorous sward with abundant legumes and herbs, suitable for productive cattle and sheep, will also provide habitat and food for invertebrates, including crop pollinators, and improve soil structure and water infiltration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use pesticides, except herbicides to spot treat or weed-wipe injurious weeds or invasive non-native species, soft and hard rush, nettles or bracken
+Use inorganic fertilisers containing nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Flowering grass and wildflowers, and a varied sward structure will provide nectar food and shelter for invertebrates. The grassland habitat will attract increased numbers of ground-nesting and feeding birds, particularly waders such as lapwing and snipe.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undertake any mechanical operations (including hay/silage cutting) between 15 March and 30 June, or allow activities outside these dates that disturb breeding birds, including ground nesting birds and their chicks
+cut rushes between 15 March and 31 July
+plough, cultivate or re-seed
+use pesticides, except for herbicides to spot-treat or weed-wipe to control nettles, bracken, injurious weeds or invasive non-native species
+cut more than one-half of scrub in any one year, except on historic and archaeological features
+use supplementary feed except for mineral blocks
+carry out drainage works, including modifying existing drainage, without having Natural England’s written permission before work starts
+apply more than 12 tonnes per ha of farmyard manure, or apply more than the following amounts of fertiliser as an alternative to farmyard manure. Applications of fertiliser or manure must not be increased if the current rate is less than:
+      9 kg/ha nitrogen
+      23 kg/ha phosphate
+      83 kg/ha potassium
+9 kg/ha nitrogen
+23 kg/ha phosphate
+83 kg/ha potassium
+apply fertiliser between 15 March and 30 June
+harrow or roll on historic or archaeological features
+apply paper waste or other industrial by-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£646 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It will maintain and improve priority grasslands. It will increase the number and frequency of important plant species, with most wildflowers in bloom over the summer. Many other priority species, such as bumblebees, butterflies, birds or bats, will benefit, and buried archaeological features will not be disturbed.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£646 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will restore grasslands that have the potential to become priority grasslands. It will increase the number and frequency of important plant species. Many other priority species, such as bumblebees, butterflies, birds or bats, will also benefit. Buried archaeological features will not be disturbed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will create priority grasslands and establish a wide range of important plant species. Many other priority species, such as bumblebees, butterflies, birds or bats, will also benefit, and buried archaeological features will not be disturbed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is for physical works that directly relate to conserving or protecting historic environment features in the landscape. This will help the long-term survival of historic and archaeological features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£500.47 per item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It removes and disposes of unsightly items which have a negative effect on the landscape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£5.00 per square metre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will help to maintain traditional farm or forestry buildings, using traditional methods and materials. This will also enhance the local landscape and preserve places for wildlife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell or convert the building for non-agricultural or forestry use during the life of the agreement
+If bat activity has been identified, do not undertake any works on the building without advice from a licensed ecological consultant (a licence may be required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£613 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It protects historic and archaeological features from damaging cultivation practices.\nDepending on land use and location it may also:', 'Protecting historic and archaeological features will conserve the character of the farm and protect England’s heritage for future generations. This option may also maintain and conserve landscape character.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plough on earthwork sites when establishing grass or flower mixtures
+Harrow or roll
+Supplementary feed within 6m of the option area
+Allow scrub or bracken growth on the option area
+Carry out drainage works, including modifying existing drainage, without written permission before work starts
+Locate vehicle or stock access routes within 6 metres (m) of the feature (existing surfaced tracks can be used)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£115 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It reduces damage to historic and archaeological features under cultivation by using non-inversion (minimum tillage) machinery and shallower cultivation depths.', 'Protecting historic and archaeological features will conserve the historic character of the farm and protect England’s heritage for future generations. This option may also maintain and conserve landscape character.', 'If successful there will be a soil surface with no evidence of:'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grow the following crops on the option area:
+      maize
+      lucerne
+      root and tuber crops (excluding non-harvestable root crops such as grazed fodder beet and forage turnips)
+      short rotation coppice
+      miscanthus
+maize
+lucerne
+root and tuber crops (excluding non-harvestable root crops such as grazed fodder beet and forage turnips)
+short rotation coppice
+miscanthus
+Carry out drainage works, including modifying existing drainage, without written permission before work starts
+Locate vehicle or stock access routes within 6 metres (m) of the feature (existing surfaced tracks can be used)
+Carry out the following field operations to deeper than 15cm:
+      tillage
+      soil management
+      planting
+      harvesting
+tillage
+soil management
+planting
+harvesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£215 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It reduces the risk of root damage to historic and archaeological features by permanently removing the majority of scrub.', 'Protecting historical and archaeological features will conserve the character of the landholding and protect England’s heritage for future generations. This option may also maintain and conserve landscape character.', 'Depending on the site’s location, this option may help to:'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear scrub between 1 March and 30 September
+Grub out stumps and roots
+Plough, cultivate or re-seed
+Harrow or roll
+Supplementary feed on or within 6 metres (m) of the historic or archaeological feature
+Locate vehicle or stock access routes within 6 metres (m) of the feature (existing surfaced tracks can be used)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£55 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It maintains permanent grassland on historic and archaeological features.', 'Maintaining these features will conserve the character of the farm and protect England’s heritage for future generations. This option may also maintain and conserve landscape character.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plough, cultivate or re-seed
+Harrow or roll
+Apply supplementary feed on or within 6m of the feature
+Locate vehicle or stock access routes within 6m of the feature (existing surfaced tracks can be used)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£2,512.00 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It protects the banks and associated historic built water-control features of designed or engineered historic water bodies. It maintains or strengthens the role of these features in water quality management.', 'Maintaining archaeological and historic features will conserve the character of the water body and protect England’s heritage for future generations. This option can also help to maintain and conserve landscape character.', 'Throughout the year there will be a permanently vegetated 4 metre (m) grass buffer strip around the water body, and a permanently vegetated 2m grass buffer strip around any associated features outside the 4m buffer.  Bare ground will be kept to a minimum and no more than a quarter of the water body will be permanently shaded. \nScrub and undesirable species will cover no more than 5% of the perimeter/bank.', 'Maintenance will be carried out on a ‘like for like’ basis, traditional materials and methods should be used unless maintaining any existing non-traditional material. A structures maintenance record will be kept using the template provided.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alter the depth, shape, profile and design of the built water body and associated engineering
+Erect new fences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£8.00 per square metre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It will help to maintain traditional farm or forestry buildings, using traditional methods and materials. This will also enhance the local landscape and preserve places for wildlife.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£257 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It reduces the risk of damage to historic and archaeological features on arable land, particularly where subtle earthwork remains survive.', 'Maintaining archaeological and historic features will conserve the character of the farm and protect England’s heritage for future generations.', 'Arable cultivation damages archaeological remains by:', 'Using direct drill machinery across earthwork remains reduces the risk of damage to archaeological features.', 'Cover-cropping techniques can help to avoid damage to soil structure and weed problems which might otherwise build up under a direct drilling regime, by:', 'If successful there will be a soil surface with no evidence of:', 'There will also be improved soil structure and fewer weeds.', 'All work involving tillage, soil management, planting and harvesting will go no deeper than 15 centimetres (cm).  A direct drill system will used where historic or archaeological earthworks are known to survive.', 'A sown cover crop will be used for at least one year of the five in agreement.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'You can reduce cultivation depth through:', 'You can reduce compaction by:', 'A mixture based on the following species will supply overwinter cover and cover into the next year.', 'Shallow rooting species are preferable. This will prevent damage from plants with a deeper, penetrating root structure like sweet clover.', 'Establish the cover crop quickly to get the most environmental benefits. You can do this by:', 'Depending on the seed mixture, the cover crop can be broadcast on to the surface and rolled afterwards.', 'Sow in the autumn and keep until 31 July the following year.', 'You are more likely to succeed if you:'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use equipment trains that are longer than 6 metres (m)
+Grow the following crops on the option area:
+      maize
+      lucerne
+      root and tuber crops (excluding non-harvestable root crops such as grazed fodder beet and forage turnips)
+      short rotation coppice
+      miscanthus
+maize
+lucerne
+root and tuber crops (excluding non-harvestable root crops such as grazed fodder beet and forage turnips)
+short rotation coppice
+miscanthus
+Carry out drainage works, including modifying existing drainage, without written permission before work starts
+Locate vehicle or stock access routes within 6m of the feature (existing surfaced tracks can be used)
+Carry out the following field operations to deeper than 15cm:
+      tillage
+      soil management
+      planting
+      Harvesting
+tillage
+soil management
+planting
+Harvesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£412 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It creates a diverse mosaic of vegetation, allowing all heathland types (such as wet or dry heath, transitional heaths, acidic mires and coastal heaths) to flourish. This includes pioneer heath and bare ground, which benefits rarer invertebrates, birds, reptiles and plants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£311 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It re-establishes lowland heathland on forested land or land recently (since 1900) colonised by woodland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to 80% of actual costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will help to improve grazing management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£179.15 per base.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will provide hard bases where livestock can stand when drinking. This will reduce the risk of runoff and water pollution from mobilised sediments and organic manures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£290.63 per base.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will provide hard bases where livestock can stand when feeding. This will reduce the risk of runoff and water pollution from mobilised sediments and organic manures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£295.90 per pump.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will provide livestock with an alternative to drinking from watercourses. It will reduce bank erosion, sediment pollution and the faecal contamination of watercourses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1,861 per pump.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£152.92 per trough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will provide livestock with an alternative to drinking from watercourses and ponds. It will reduce bank erosion, sediment pollution and the faecal contamination of watercourses. It is not for replacing existing troughs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£3.31 per metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It creates a winter food source for seed-eating birds, which feed on spilt grain and the seeds of broad-leaved weeds, and a foraging habitat for brown hare.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply any fertilisers, manures or lime to the stubble
+Top or graze the stubble
+Cultivate the stubble after harvest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£787 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow an individual crop group to exceed 90% of the total mix by weight
+Sow the following crops:
+      artichokes
+      canary grass
+      giant and intermediate sorghum
+      maize
+      miscanthus
+      sweet clover
+      tic beans
+artichokes
+canary grass
+giant and intermediate sorghum
+maize
+miscanthus
+sweet clover
+tic beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£935 per tonne for every 2 hectares (ha) of wild bird seed mixture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides important food sources for farmland birds in late winter and early spring on arable and mixed farms, by supplementing crops of winter bird food with additional seed, such as cereal, oilseed and specialised grains.', 'It gives the birds food through the ‘hungry gap’ (the late winter period when seed is in short supply) and as they enter the breeding season.', 'Ideally there will be seed-eating farmland birds using the feeding areas from December to April, including:', 'You can also use this option in combination with the SP9 Threatened species supplement to deliver summer supplementary feeding for turtle doves in priority areas.', 'You can find more information on how to carry out summer supplementary feeding for turtle doves in the Where to use this option, Requirements and Advice and suggestions for how to carry out this option sections on GOV.UK for SP9 .', 'From 1 December to 30 April, there will be about 25 kilograms (kg) of both cereals and other small seeds (see recommended management for details of the seed mix) scattered once a week in multiple locations.  For every 1 tonne of supplementary feed, there will be 2 feeding stations supplying 500kg each (or if there is less than 1 tonne of supplementary feed, it will be split equally between 2 separate feeding stations).', 'The seed will be scattered in areas which are firm and free-draining, such as farm tracks or hard standing areas, and in close proximity to enhanced overwinter stubbles, game cover or wild bird seed mixtures.', 'Keep a feeding diary which includes details of mixture used (weight of components and cost), dates of feeding, method of feeding (hopper or spreading), amount of feed, and the location of feeding areas.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use hoppers to supply more than 10% of the total amount of feed provided during the specified feeding period
+Use tailings (small seeds and chaff removed from the harvested crop) to supply more than 30% by weight of the supplementary feed
+Use a non-organic seed mix unless organic seed is unavailable, in which case you must apply to the organic control body for a derogation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£117 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides a valuable year-round habitat and food for farmland wildlife such as pollinators and farmland birds.', 'A multi-species lay will be established in the first year containing at least 5 grass species, 3 legume species and 3 herb species.\nRotational cutting or grazing will ensure there are flowering species throughout the summer months.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'As this is a rotational option, it can be moved between eligible parcels but the same total area (hectarage) should be maintained each year.', 'The following advice is helpful, but they are not requirements for this item.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme.\u202fCapital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow the grass component to exceed 75% of the seed mix by weight (measured in kilograms per hectare).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£380 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Provides a habitat that benefits animals including invertebrates and birds that forage within the under sown cereal crop.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£187 per hectare (ha) per year for up to 2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It helps to convert permanent grassland from conventional management to organic management.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£96 per hectare (ha) per year for up to 2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['This option supports conversion of unimproved grassland to organic management.\nIf successful there will be an increase in the overall area of land registered and managed as organic.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£298 per hectare (ha) per year, for up to 2 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Helps to convert land under conventional management to organic management.\nIf successful there will be an increase in the overall area of land registered and managed as organic.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£874 per hectare (ha) per year, for up to 2 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It helps to convert rotational land used to produce vegetables or salads into organic status land.\nIf successful there will be an increase in the overall area of land used to produce organic products.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1,920 per hectare (ha) per year, for up to 3 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Helps recently planted and traditional standard orchards (and permanent fruit or berry bushes) convert to organic management.\nIf successful there will be an increase in the overall land area registered as organic, providing a range of environmental and public benefits.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£20 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Maintains land under organic management, providing a wide range of environmental and public benefits.', 'If successful associated benefits will increase as the organic area is maintained.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£41 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It maintains unimproved grassland under organic management, providing a wide range of environmental and public benefits.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£132 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Maintains land under organic management, providing a wide range of environmental and public benefits.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£707 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Maintains land under organic management, providing a wide range of environmental and public benefits.', 'If successful you should see these benefits increase and the organic area maintained.', 'There will be at least 1 horticultural crop in each field parcel.  There will be a maximum area of 20ha of this option in the agreement.', 'During the rotation at least 40% of the area entered for this option will be in horticultural production.', 'Organic standards will be adhered to for the duration of the agreement.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'Permanent ineligible features may be eligible as part of the option area if registered with a control body.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1,920 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It maintains top fruit orchards under organic management, providing a range of environmental and public benefits.', 'All trees will be protected from damage, including by animals.  Newly planted trees will have a 1 metre (m)diameter circle around the base clear of vegetation for 3 years after planting.', 'Organic standards will be adhered to for the duration of the agreement.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'Permanent ineligible features may be eligible as part of the option area if registered with a control body.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£97 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Maintains organic management of enclosed rough grazing parcels no greater than 15ha within the SDA and above the moorland line. This creates a wide range of environmental and public goods.', 'If successful applicants should see these benefits increase and organic management maintained.', 'Organic standards will be adhered to for the duration of the agreement.  For land in conversion, comply with organic standards from the start of organic conversion to the end of the agreement.', 'To achieve the aims and deliver the environmental benefits across the whole parcel, do not carry out any of the following activities:', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'Permanent ineligible features may be eligible as part of the option area if registered with a control body.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£136.95 per gateway.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will provide a strengthened surface at the field gateway. This will reduce ponding on either side of the gateways caused by soil compaction. If successful there will be reduced surface runoff, soil erosion and risk of diffuse water pollution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£2.02 per metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will improve existing outdoor yards to reduce the risk of runoff and water pollution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£200 per unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£33.64 per square metre.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It improves or upgrades existing outdoor (uncovered) yard drainage to reduce foul drainage volumes and runoff, makes cleaning easier and reduces the risk of water and air pollution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£11.55 per metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New guttering and downpipes (rainwater goods) will prevent the discharge of clean water on to fouled yard areas, which will help reduce risk of water pollution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£73.34 per cubic metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The above ground storage tank will collect and contain rainwater and help to keep clean and dirty water separate. This will provide free clean water, which may be suitable to use for a number of tasks around the farm such as yard washing, instead of wasting potable water supplies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£174.59 per unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It diverts and filters potentially contaminated roof water to keep leaves, debris and other contaminants out of diverters, clean water drains and water storage tanks. This will help provide clean water that can be used for a number of tasks around the farm such as yard washing, instead of wasting potable water supplies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£369.59 per gateway.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will move the gateway to a suitable location where it will not act as a pathway for water runoff. This will prevent polluted surface water from leaving fields through gateways and help to reduce risk of soil erosion and diffuse pollution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£72.50 per square metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will provide new roofing to reduce water pollution by preventing rainfall from getting into:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£2.75 per square metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A floating cover for slurry and on-farm anaerobic digestate stores and lagoons will help to reduce the volume of dirty water that needs to be stored and spread. It will also improve air quality by reducing ammonia emissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£44.63 per metre (m).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New farm tracks reduce soil compaction and erosion caused by livestock and machinery. They also help reduce channelling of surface runoff and the risk of sediment and other pollutants entering a watercourse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£750.26 per drain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item will provide a drain to intercept and conduct surface runoff away from farm tracks and yards. The drain will help reduce channelling of surface runoff and the risk of sediment and other pollution entering a watercourse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£376.23 per culvert.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This watercourse crossing will provide access for farm machinery or livestock. This will reduce the disturbance to the watercourse which will help reduce sedimentation and bacterial levels in the water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£11.88 per square metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sediment pond or trap will provide an area where muddy run-off from fields or tracks is allowed to pond so sediment will settle out. This will help reduce the risk of sediment and other pollutants entering a nearby watercourse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB1B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB1D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB1E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB1F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£270.90 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is for chemically controlling bracken. This will restore or maintain high value natural habitats and their associated wildlife, protect archaeological features and help maintain or enhance the landscape’s character.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£190.90 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item is for mechanically controlling bracken. This will restore or maintain high value natural habitats and their associated wildlife, protect archaeological features and help maintain or enhance the landscape’s character.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB6A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB6B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB6C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£93 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It supports the management of particularly difficult sites. It also retains small fields and their locally characteristic boundary pattern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£7.00 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is for agreements with shared grazing. It supports good administration of these agreements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£232 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It controls the spread of, or removes, existing dense stands of bracken. This will maintain or restore biodiversity value and protect archaeological sites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£380 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It supports the active management and eradication of particularly severe infestations of invasive non-native species that are damaging a feature of interest, such as:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£10 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful there will be:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£59 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£167 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is for the conservation of genetic diversity in native breeds at risk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£204 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£515 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['A grass buffer strip may provide new habitat, protect existing landscape features, and improve water quality.', 'Next to existing features, it will provide habitat for wildlife, and form links or corridors between other habitats.', 'Next to a watercourse, it will also prevent pollutants, such as sediment and nutrients, from being transported in surface water runoff.', 'Throughout the year there will be a 4 to 6 metre (m) wide grass strip. Establish this during the first year and maintain for the period of the agreement.  There will be an intact grass sward with no evidence of damage from vehicle or stock access routes.', 'During late summer, after the bird breeding season, cut part of the strip width next to the crop edge to provide some shorter vegetation.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'This option can be used on buffer strips that are already established, unless they are being paid for through another scheme. However, the buffer strip should be on land that can be cultivated (for example, it cannot be on a very steeply banked strip alongside a boundary).', 'Buffer strips established under Entry Level Stewardship (ELS) can continue to be managed under a new Countryside Stewardship agreement.', 'To protect watercourses, create the buffer strip:', 'To benefit wildlife, select a location that links habitats, or that is next to:', 'To protect archaeological features, create the buffer strip beside:', 'The buffer strip can be partly covered by a hedge, as long as the hedge is located on land that is eligible for this option.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme.\u202fCapital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply any fertilisers or manures
+Use pesticides, except for herbicides to weed wipe or spot treat injurious weeds, invasive non-native species, nettles or bracken
+Remove fallen timber or the limbs (including lower limbs) of any hedgerow trees that are over 30 centimetres (cm) in diameter at breast height.
+Cut the remainder of the strip (except to control woody growth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£742 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It prevents livestock access to the watercourse and provides a buffer strip. This will help reduce bankside erosion and the transport of pollutants to the watercourse. It will also provide habitat for wildlife and form links between other habitats. As the scrub develops, it may also help to shade and cool the watercourse.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply any fertilisers or manures
+Apply pesticides, except for herbicides to weed wipe or spot treat injurious weeds, invasive non-native species, nettles or bracken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£156 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£235 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides new habitat and protects existing landscape features.\nWhen placed next to existing features, it will protect water courses, provide habitat for wildlife, and form links or corridors between other habitats.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply any fertilisers or manures
+Use pesticides, except for herbicides to weed wipe or spot treat injurious weeds, invasive non-native species, nettles or bracken
+Remove fallen timber or the limbs (including lower limbs) of any hedgerow trees that are over 30 centimetres (cm) in diameter at breast height
+Cut the buffer strip, except to control woody growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£765 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Grass areas or strips will help to reduce the quantity of sediment, nutrients and pesticides transported through surface runoff water, both within fields and from field to field.', 'Throughout the year there will be an in-field grass strip.  Establish this during the first year and maintain for the period of the agreement.  There will be an intact grass sward with no evidence of damage from vehicle or stock access routes.', 'During late summer, after the bird breeding season, cut the entire strip to encourage a dense sward with a variety of grasses to grow.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'Improve water infiltration on the grass strip through appropriate management of the adjoining land. Strips will trap sediment better if large volumes of overland flow are not coming from surrounding land.', 'This option can be used at the margins of fields that are vulnerable to erosion to capture sediment or materials carried in runoff water.', 'Creating breaks, such as hedgerows and woodland, on long, steep slopes will complement the grass strips.', 'The grass strip should be created:', 'Where there is a need to implement this option on more than 30% of the parcel, you should consider instead using option SW7 - Arable reversion to grassland with low fertiliser input to cover a larger area.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme.\u202fCapital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply any fertilisers or manures
+Use pesticides, except for herbicides to weed wipe or spot treat injurious weeds, invasive non-native species, nettles or bracken
+Allow livestock access to the strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It establishes a grass buffer to help reduce the risk of potential pollutants, such as sediment, pesticides and nutrients (mainly phosphate), being transported to watercourses in surface water runoff. It may also provide habitat for wildlife, and form links between other habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£203 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvesting maize early in suitable conditions reduces the risk of soil damage and post-harvest loss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£129 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Cover crops help to reduce nitrate leaching on land that would normally be left bare or down to stubbles during winter. It may also reduce the risk of potential pollutants, such as sediment and nutrients, being carried to neighbouring watercourses.', 'Establish as soon as possible after the harvest (by early autumn at the latest), a suitably fast growing cover crop, providing a dense cover over the winter period.\nDestroy the cover crop in late winter, no more than 6 weeks before establishing the following spring crop.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option we recommend that you use best practice.', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'This option on should be used on vulnerable soil types, particularly light sandy soils within nitrate vulnerable areas.\nUse the run-off and soil erosion risk assessment form to identify fields at moderate or higher risk of surface run-off or soil erosion. You can then mark these fields on your Farm Environment Record map. You don’t have to use this form. You can use your own document if it gives enough information to meet the requirements', 'On fields next to a watercourse that are at risk of soil erosion and runoff, applicants should also consider creating grass buffer strips. They will help to capture any sediment or organic materials carried in runoff water. Options SW1 - 4m to 6m buffer strip on cultivated land, SW4 - 12m to 24m watercourse buffer strip on cultivated land, or other grass buffer options may be used', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£489 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['A dense grass sward in arable fields at risk of soil erosion or surface runoff will stabilise the soil, reduce nutrient losses, and buffer sensitive habitats, such as designated aquatic habitats or terrestrial habitats sensitive to atmospheric nitrogen. It will also reduce surface runoff, which may help to reduce the risk of flooding.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use pesticides, except for herbicides to weed wipe or spot treat injurious weeds, invasive non-native species, nettles or bracken
+Apply any manure or fertiliser between 15 August and 1 February
+Apply any livestock manures with more than 100 kilograms (kg) of total nitrogen per ha per year- where you do not use livestock manures, you can use nitrogen fertiliser to supply no more than 50kg per ha of total nitrogen per year
+Supplementary feed except for mineral blocks (non-energy based)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£311 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Reducing stocking density and fertiliser inputs on improved grassland will help reduce soil compaction, surface run-off and risk of diffuse pollution to the watercourse. Reducing surface runoff may help to reduce the risk of flooding. The option may also reduce the risk of nitrate loss to ground and surface water if it is used with SW14 - Nil fertiliser supplement.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use pesticides, except for herbicides to weed wipe or spot treat injurious weeds, invasive non-native species, nettles or bracken
+Apply any manure or fertiliser between 15 August and 1 February
+Apply any livestock manures with more than 100kg of total nitrogen peer ha per year- where you do not use livestock manures, you can use nitrogen fertiliser to supply no more than 50kg per ha of total nitrogen per year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Livestock will be removed at particular times of the year from fields adjacent to a watercourse that are prone to waterlogging, compaction or poaching. This will help improve soil structure, reduce surface runoff and risk of diffuse pollution to the watercourse. Reducing surface runoff may help to reduce the risk of flooding.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£19.06 per tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hedgerow trees provide shelter, food, nesting sites and song posts, as well as stepping stones between woodland habitats, and make a valuable contribution to the landscape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£53.95 per tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coppicing of bankside trees increases the longevity and health of these features, provides valuable habitat and habitat corridors in river valley and wetland landscapes and in the right location can help stabilise river and ditch banks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE11A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE11B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£20 per variety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful local and rare varieties of fruit trees will be identified which will help select varieties to be planted in orchard restoration projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£123.94 per tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If successful new standard trees will be established in wood pasture and parklands, replacing lost trees or restoring sustainable populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£28.07 per tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will ensure the continuation of fruit trees in hedgerows where it is characteristic of the local landscape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE4A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE4B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE4C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE4D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£2.43 per unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It provides tree shelters to protect young, establishing trees from damage by browsing animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£53 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It maintains and enhances areas of enclosed rough grazing land within an upland farming system. This land contains extensive areas of moorland vegetation but it does not meet moorland priority habitat status over the majority of the parcel.', 'This habitat will benefit moorland birds such as short-eared owl and ring ouzel and provide improved breeding and feeding habitat for birds such as golden plover and redshank.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operate machinery or carry out other activities during the bird breeding season, that may disturb breeding birds or damage nests
+Use pesticides, except for herbicides to spot-treat or weed-wipe for the control of injurious weeds, invasive non-natives, nettles and bracken
+Apply any lime, fertilisers or manures
+Supplementary feed except for mineral blocks
+Cut rushes between 15 March and 31 July
+Cut more than half of the scrub in any year, except on historic and archaeological features
+Use herbicides on ferns other than bracken
+Plough, cultivate or re-seed
+Carry out any drainage works, including modifying existing drainage, unless the Rural Payments Agency (RPA) has given written permission before work takes place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£121 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It’s for restoring or maintaining upland bird populations (normally breeding waders such as Lapwing, Snipe, Redshank, Curlew and Golden Plover but may also include Yellow wagtail, Black Grouse or other priority species). The option brings about appropriate water level management and provides the required grassland habitat and sward structure for feeding and nesting.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grazing that does not follow the stocking calendar
+Operate machinery or carry out other activities during the bird breeding season that may disturb breeding birds or damage nests
+Use pesticides, except for herbicides to spot-treat or weed-wipe for the control of injurious weeds, invasive non-natives, soft and hard rush nettles, and bracken
+Supplementary feed except for providing mineral blocks (non-energy based)
+Carry out any drainage works, including modifying existing drainage, unless the Rural Payments Agency (RPA) has given written permission before work takes place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£55 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£12 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is for carrying out an appropriate programme of vegetation management to contribute to restoration and improvement in functionality of priority habitats such as dry heath, wet heath and blanket bog where significant changes to current management are required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£181 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will maintain and restore vegetation mosaics, wetland habitats and associated wildlife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£19 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will improve habitat and feature conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£11.95 per box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It provides artificial nesting, roosting and hibernation sites for specific mammals, birds and invertebrates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£27.91 per box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It provides artificial nesting, roosting and hibernation sites for specific mammals and birds. This includes tree sparrow and targeted bat species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£38.28 per box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item provides artificial nesting and roosting sites for large birds, in particular barn owls and kestrels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£400 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will help create woodland that:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minimum of £1000 per year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will improve the biodiversity of woodland and/or make it more resilient to climate change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£428 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['New woodland edge habitat will result in an increase in birds, invertebrates, small mammals and other wildlife.', 'Throughout the year there will be a strip of scrub and grass mosaic developing through natural regeneration between the arable land and existing woodland.  The strip will be a maximum of 6m wide.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'The woodland edge should be encouraged to grow 6m out into the field, forming a scrub and grass mosaic. This mosaic should not be allowed to develop into secondary woodland but should be maintained through controlled grazing and/or cutting.', 'The option should be placed next to mainly native woodland, in particular ancient woodland, which may be under active or passive management. It may be used to enhance woodland within the holding, as well as woodland that immediately borders but is not part of the farm.', 'The option is also eligible where a ditch runs between the woodland and the arable field. It may not be practical, however, if the ditch requires continuous management or maintenance. Special care is needed to ensure that historic features such as woodbanks are undamaged.', 'The woodland next to this option may receive funding under woodland options but there must be no overlap. Buffer strip options may also be located next to this option.', 'The woodlands located next to this option may be home to European Protected Species, which could migrate into the scrub and grass land mosaic created. Young scrub, for example, is ideal habitat for dormice.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme.\u202fCapital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use pesticides, except for herbicides to spot-treat or weed-wipe for the control of injurious weeds, invasive non-natives, nettles and bracken
+Apply any fertilisers or manures
+Supplementary feed
+Cultivate within 6 metres (m) of the woodland edge
+Cut during the bird breeding season (1 March to 31 August)
+Cut more than a third of the shrubby growth in any one calendar year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£371 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It restores existing lowland wood pasture and parkland on sites that support veteran trees or parkland features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£544 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will create new wood-pastures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£276 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It provides enhanced habitat for a wide range of wildlife, such as birds and invertebrates, and improves the quality of the woodland edge. It also helps prevent soil erosion and holds back water to reduce downstream flood risks.', 'Throughout the year there will be a mosaic of different grasses and scrub.  Where there are growing trees these will be protected and any standing and fallen deadwood will be left in place. Injurious weeds and invasive non-native species will be controlled.', 'From late autumn until early spring there will be no livestock in the option area.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option, we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'The following advice is helpful, but they are not requirements for this item.', 'This option works best where:', 'Remove grazing livestock to allow scrub plants to establish. Once established, stop scrub from becoming too dense by cutting on rotation, or grazing.', 'Establish a variety of scrub to provide habitats and food for target species. For example:', 'Leave any trees that die or fall in position, except where it is necessary to remove them for health and safety reasons.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme.\u202fCapital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.', 'If you intend to create a new woodland, you must consider if you need consent from the Forestry Commission under the Environmental Impact Assessment (Forestry) regulations. When proposing a project, you must demonstrate that your proposal will not have a significant effect on the environment; that is, it is UK Forestry Standard (UKFS) compliant.', 'Use the Forestry Commission map browser and Land Information Search to check if your forestry project is likely to have a significant effect on the environment and MAGIC to search for known protections, designations, features that may be adversely affected by woodland creation, or whether your proposal is within a low sensitivity area where woodland creation may be more appropriate.', 'For all projects, walk over the location to check for any obvious features that are not otherwise recorded, for example, veteran trees, wet flushes, ground nesting birds which may be adversely affected by tree planting and take them into account when designing your proposal.', 'Once you have this information, if you are still unsure if your project will have a significant effect (and therefore need consent) check with the Forestry Commission. If your project is likely to have a significant effect on the environment, you will need consent from the Forestry Commission before it can go ahead.', 'There are four types of forestry projects under the EIA Forestry regulations, one of which is Afforestation.', 'Afforestation means conversion of a non-woodland land use, for example agriculture, into woodland or forest (these terms are used interchangeably) by means of planting or facilitating natural regeneration (self-sowing) of trees to form woodland cover. This can include proposals for short rotation coppice (SRC) and short rotation forestry (SRF), including those for energy crops or Christmas tree plantations.', 'Please read Environmental Impact Assessments for woodland for more information.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut more than one-third of shrub growth in any one calendar year
+Cut during the bird breeding season (1 March to 31 August)
+Apply fertilisers or manures
+Plough, cultivate or re-seed
+Harrow or roll
+Supplementary feed
+Use pesticides, except for herbicides to weed wipe or spot treat injurious weeds, invasive non-native species, nettles or bracken
+Carry out drainage works, including modifying existing drainage, without written permission before work starts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£514 (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It creates a successional scrub habitat, with vegetation of a wide range of heights, forms and species composition. This provides pollen and nectar sources for beneficial insects, food and habitats for birds, mammals and specific target species. Where placed next to existing woodland areas it will improve the quality of the woodland edge and better transitions between habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut the area (except in patches to control injurious weeds and invasive non-native species)
+Apply fertilisers or manures
+Plough, cultivate or re-seed
+Harrow or roll
+Supplementary feed
+Use pesticides, except for herbicides to weed wipe or spot treat injurious weeds or invasive non-native species
+Cut down any existing trees or scrub, or remove any dead trees or scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£74 (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WN1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£19.06 per block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will maintain and restore moorland habitats, vegetation mosaics and associated wildlife. If successful there will be restored, re-wetted moorland and peatland habitats supporting target vegetation and species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WN2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£2.23 per square metre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrapes provide areas of bare ground, which may be designed to hold water in wet habitats or provide early successional areas in dry habitats. Gutters provide shallow channels to hold or transport water through wet habitats and provide feeding areas for waders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WN5A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WN5B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WN6A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WN6B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£105 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective use of this supplement will:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£60 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It protects ponds from nutrient leaching and sediment runoff. This will maintain and enhance water quality and wildlife.', 'There will be a 10m – 20m wide grass strip surrounding a pond or adjacent to a ditch.  This will be left to develop a mix of tussocky grasses, flowering plants and low scrub through natural regeneration with the southern side remaining free of scrub.', 'To achieve the aims and deliver the environmental benefits, do not carry out any of the following activities:', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'To assist you in achieving the aims and deliver the environmental benefits for this option we recommend that you use best practice.', 'We recommend that you:', 'Where there is uncertainty about whether the aims of the options have been delivered, we will take into account any records or evidence you may have kept demonstrating delivery of the aims of the option. This will include any steps you’ve taken to follow the recommended management set out above. It’s your responsibility to keep such records if you want to rely on these to support your claim.', 'On your annual claim you will be asked to declare that you have not carried out any prohibited activities.', 'The following advice is helpful, but they are not requirements for this item.', 'This option can form part of an IPM approach to prevent the establishment of pests, weeds and diseases. If successful, appropriate and within proximity of cropped areas, these may limit the need for the use of Plant Protection Products and enhance wildlife and biodiversity on your holding. Read information on IPM at AHDB (Agriculture and Horticulture Development Board) Integrated Pest Management and LEAF (Linking Environment and Farming).', 'This option has been identified as being beneficial for biodiversity. All Countryside Stewardship habitat creation, restoration and management options are of great significance for biodiversity recovery, as are the wide range of arable options in the scheme. Capital items and supplements can support this habitat work depending on the holding’s situation and potential.', 'The connectivity of habitats is also very important and habitat options should be linked wherever possible. Better connectivity will allow wildlife to move/colonise freely to access water, food, shelter and breeding habitat, and will allow natural communities of both animals and plants to adapt in response to environmental and climate change.'].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut the strip, except to prevent scrub from developing on more than half of the pond or ditch margin
+let livestock poach more than a third of the pond margin
+use pesticides, except for herbicides to weed wipe or spot treat for the control of injurious weeds, invasive non-native species, nettles or bracken
+apply any fertilisers or manures
+cut between 1 March and 31 August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1,346 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It supports the appropriate cutting management of wetland habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£566 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It supports the appropriate grazing management of wetland habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£681 per hectare (ha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It protects ponds and high environmental value ditches from nutrient leaching and runoff. This will maintain and enhance water quality and wildlife. If successful there will be a decrease in the amount of sediment and nutrient entering the pond or ditch.''].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut the strip, except to prevent scrub from developing on more than half of the pond or ditch margin
+use pesticides, except for herbicides to weed-wipe or spot-treat for the control of injurious weeds, invasive non-native species, nettles or bracken
+apply any fertilisers or manures
+cut between 1 March and 31 August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£44 per 100 metres (m) for the management of both sides of the ditch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['It will manage ditches of high environmental value that support target species of plants, birds, mammals and invertebrates. It will also manage ditches that are essential to carrying out the wet grassland and wetland options.', ].''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£424 per pond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will protect and enhance larger ponds of high wildlife value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">£920 per hectare (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is for managing, maintaining and restoring priority reedbed habitat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will help maintain and restore priority fen habitat and small areas of reedbed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -737,7 +2025,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -745,1250 +2033,2877 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F818D"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C196" activeCellId="0" sqref="C196"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="162.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="98.43357142857143" customWidth="1" bestFit="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="162.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="98.43"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="79.5">
+    <row r="44" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
+    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="90">
+    <row r="61" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5">
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5">
+    </row>
+    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5">
+    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="37.5">
+    <row r="65" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5">
+    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>207</v>
       </c>
     </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>